--- a/DIV12_Analysis/ComparedResults/DIV12_Tables.xlsx
+++ b/DIV12_Analysis/ComparedResults/DIV12_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DIV12\DIV12_Analysis\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C2DF9-A4D8-47B1-88E5-D2A2634EED0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360443D7-CB5E-4959-893B-B2390C55EAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalInvoicePayment" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="32">
   <si>
     <t>LATEST</t>
   </si>
@@ -47,7 +47,7 @@
     <t>CHANGE</t>
   </si>
   <si>
-    <t>Decreased</t>
+    <t>Increased</t>
   </si>
   <si>
     <t>PARTNER</t>
@@ -62,13 +62,22 @@
     <t>ASKR AUTO INC</t>
   </si>
   <si>
+    <t>BEYOND EXPRESS</t>
+  </si>
+  <si>
     <t>BROOKES TRANSPORTATION, LLC</t>
   </si>
   <si>
-    <t>GIANNA TRANSPORT LLC</t>
+    <t>CIRCLE TRANSIT</t>
   </si>
   <si>
-    <t>HAMID SALEH</t>
+    <t>DEAN LOGISTICS SOLUTIONS LLC</t>
+  </si>
+  <si>
+    <t>DIRECT TRANSIT LLC</t>
+  </si>
+  <si>
+    <t>GIANNA TRANSPORT LLC</t>
   </si>
   <si>
     <t>JARA TRANS LLC</t>
@@ -90,6 +99,9 @@
   </si>
   <si>
     <t>PUNCTUAL SERVICE LLC</t>
+  </si>
+  <si>
+    <t>Q-TELL TRANSIT LLC</t>
   </si>
   <si>
     <t>QUAKER STATE TRANS LLC</t>
@@ -139,12 +151,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -163,14 +175,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -517,8 +529,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
@@ -542,10 +553,10 @@
         <v>168195.6</v>
       </c>
       <c r="B2" s="2">
-        <v>187259.98</v>
+        <v>32997.75</v>
       </c>
       <c r="C2" s="2">
-        <v>-19064.38</v>
+        <v>135197.85</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -558,13 +569,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -589,13 +600,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>78.72</v>
       </c>
       <c r="D2" s="3">
-        <v>-21.28</v>
+        <v>78.72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,13 +614,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>94.05</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>95.74</v>
       </c>
-      <c r="D3" s="4">
-        <v>1.7</v>
+      <c r="D3" s="3">
+        <v>95.74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,13 +628,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>96.98</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>98.37</v>
       </c>
-      <c r="D4" s="4">
-        <v>1.38</v>
+      <c r="D4" s="3">
+        <v>98.37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,13 +642,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>93.15</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
-        <v>92.67</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.48</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,13 +656,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+        <v>92.67</v>
+      </c>
+      <c r="D6" s="3">
+        <v>92.67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -659,13 +670,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>99.12</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="D7" s="4">
+        <v>-99.12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -676,10 +687,10 @@
         <v>100</v>
       </c>
       <c r="C8" s="2">
-        <v>100</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +698,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>98.7</v>
+        <v>96.5</v>
       </c>
       <c r="C9" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>1.3</v>
+        <v>-96.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +712,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>99.2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>98.65</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3">
-        <v>-0.55000000000000004</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +726,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>93.42</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>93.15</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3">
-        <v>-0.27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,13 +740,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>70.11</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
         <v>100</v>
       </c>
-      <c r="D12" s="4">
-        <v>29.89</v>
+      <c r="D12" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +754,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>97.65</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>97.73</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.08</v>
+        <v>98.65</v>
+      </c>
+      <c r="D13" s="3">
+        <v>98.65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +768,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>86.67</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>89.13</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2.46</v>
+        <v>93.15</v>
+      </c>
+      <c r="D14" s="3">
+        <v>93.15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,13 +782,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>97.23</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>75.180000000000007</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3">
-        <v>-22.05</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,13 +796,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>94.34</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>93.55</v>
+        <v>97.73</v>
       </c>
       <c r="D16" s="3">
-        <v>-0.79</v>
+        <v>97.73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,13 +810,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>99.35</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>98.57</v>
+        <v>89.13</v>
       </c>
       <c r="D17" s="3">
-        <v>-0.78</v>
+        <v>89.13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +824,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>60.92</v>
+        <v>93.47</v>
       </c>
       <c r="C18" s="2">
-        <v>98.36</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>37.44</v>
+        <v>-93.47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +838,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>99.23</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>99.48</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.25</v>
+        <v>75.180000000000007</v>
+      </c>
+      <c r="D19" s="3">
+        <v>75.180000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,13 +852,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>100</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
+        <v>93.55</v>
+      </c>
+      <c r="D20" s="3">
+        <v>93.55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,13 +866,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>98.8</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>100</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.2</v>
+        <v>98.57</v>
+      </c>
+      <c r="D21" s="3">
+        <v>98.57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -869,13 +880,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>100</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
+        <v>98.36</v>
+      </c>
+      <c r="D22" s="3">
+        <v>98.36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,13 +894,69 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>83.86</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
+        <v>99.48</v>
+      </c>
+      <c r="D23" s="3">
+        <v>99.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>100</v>
+      </c>
+      <c r="D24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>100</v>
+      </c>
+      <c r="D25" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>100</v>
+      </c>
+      <c r="D26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
         <v>89.57</v>
       </c>
-      <c r="D23" s="4">
-        <v>5.7</v>
+      <c r="D27" s="3">
+        <v>89.57</v>
       </c>
     </row>
   </sheetData>
@@ -899,13 +966,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -944,13 +1011,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>2.5299999999999998</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>6.67</v>
       </c>
-      <c r="D3" s="4">
-        <v>4.1399999999999997</v>
+      <c r="D3" s="3">
+        <v>6.67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -958,13 +1025,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>2.59</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>5.52</v>
       </c>
-      <c r="D4" s="4">
-        <v>2.93</v>
+      <c r="D4" s="3">
+        <v>5.52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -972,13 +1039,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>3.81</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-1.1100000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+        <v>3.81</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1000,13 +1067,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="D7" s="4">
+        <v>-3.55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1014,13 +1081,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
-        <v>-3.57</v>
+      <c r="D8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1028,13 +1095,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
+      <c r="D9" s="4">
+        <v>-1.93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1042,13 +1109,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-1.1399999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1056,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>2.94</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1.53</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1070,13 +1137,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1084,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>2.23</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.08</v>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>4.62</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>4.88</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.26</v>
+        <v>2.94</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>4.2699999999999996</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>1.31</v>
+        <v>3.33</v>
       </c>
       <c r="D15" s="3">
-        <v>-2.96</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>1.72</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.72</v>
+        <v>2.23</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,13 +1207,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1.9</v>
+        <v>4.88</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4.88</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1154,13 +1221,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="C18" s="2">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>3.33</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1168,13 +1235,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>3.12</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2.35</v>
+        <v>1.31</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
+        <v>1.72</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5</v>
+        <v>5.8</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5.8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
+        <v>3.33</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3.33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1224,13 +1291,69 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
         <v>3.2</v>
       </c>
-      <c r="D23" s="4">
-        <v>1.41</v>
+      <c r="D27" s="3">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -1240,13 +1363,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -1271,13 +1394,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>88.11</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>86.21</v>
       </c>
       <c r="D2" s="3">
-        <v>-1.89</v>
+        <v>86.21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,13 +1408,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>63.25</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>52.45</v>
       </c>
       <c r="D3" s="3">
-        <v>-10.81</v>
+        <v>52.45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,13 +1422,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>80.59</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>70.36</v>
       </c>
       <c r="D4" s="3">
-        <v>-10.220000000000001</v>
+        <v>70.36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1313,13 +1436,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>92.54</v>
+        <v>92.77</v>
       </c>
       <c r="C5" s="2">
-        <v>89.51</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-3.03</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-92.77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1327,13 +1450,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>88.85</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>83.03</v>
+        <v>89.51</v>
       </c>
       <c r="D6" s="3">
-        <v>-5.83</v>
+        <v>89.51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1341,13 +1464,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>83.63</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="D7" s="4">
+        <v>-83.63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1355,13 +1478,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>86.27</v>
+        <v>94.81</v>
       </c>
       <c r="C8" s="2">
-        <v>62.86</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-23.41</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-94.81</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,13 +1492,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>75.33</v>
+        <v>69.510000000000005</v>
       </c>
       <c r="C9" s="2">
-        <v>72.89</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-2.44</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-69.510000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,13 +1506,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>95.47</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>92.68</v>
+        <v>83.03</v>
       </c>
       <c r="D10" s="3">
-        <v>-2.78</v>
+        <v>83.03</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,13 +1520,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>79.33</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>63.62</v>
+        <v>62.86</v>
       </c>
       <c r="D11" s="3">
-        <v>-15.7</v>
+        <v>62.86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,13 +1534,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>71.7</v>
+        <v>72.89</v>
       </c>
       <c r="D12" s="3">
-        <v>-1.1000000000000001</v>
+        <v>72.89</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,13 +1548,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>93.05</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>85.27</v>
+        <v>92.68</v>
       </c>
       <c r="D13" s="3">
-        <v>-7.78</v>
+        <v>92.68</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,13 +1562,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>68.08</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>62.52</v>
+        <v>63.62</v>
       </c>
       <c r="D14" s="3">
-        <v>-5.56</v>
+        <v>63.62</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,13 +1576,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>86.14</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>79.22</v>
+        <v>71.7</v>
       </c>
       <c r="D15" s="3">
-        <v>-6.92</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,13 +1590,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>60.24</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>53.76</v>
+        <v>85.27</v>
       </c>
       <c r="D16" s="3">
-        <v>-6.48</v>
+        <v>85.27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,13 +1604,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>84.99</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>56.22</v>
+        <v>62.52</v>
       </c>
       <c r="D17" s="3">
-        <v>-28.77</v>
+        <v>62.52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,13 +1618,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>66.38</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="C18" s="2">
-        <v>68.97</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>2.59</v>
+        <v>-76.260000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,13 +1632,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>82.49</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>71.66</v>
+        <v>79.22</v>
       </c>
       <c r="D19" s="3">
-        <v>-10.83</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,13 +1646,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>73.22</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>68.489999999999995</v>
+        <v>53.76</v>
       </c>
       <c r="D20" s="3">
-        <v>-4.7300000000000004</v>
+        <v>53.76</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,13 +1660,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>90.21</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>78.19</v>
+        <v>56.22</v>
       </c>
       <c r="D21" s="3">
-        <v>-12.02</v>
+        <v>56.22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,13 +1674,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>59.53</v>
-      </c>
-      <c r="D22" s="4">
-        <v>8.2200000000000006</v>
+        <v>68.97</v>
+      </c>
+      <c r="D22" s="3">
+        <v>68.97</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,13 +1688,69 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>74.67</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
+        <v>71.66</v>
+      </c>
+      <c r="D23" s="3">
+        <v>71.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="D24" s="3">
+        <v>68.489999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>78.19</v>
+      </c>
+      <c r="D25" s="3">
+        <v>78.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>59.53</v>
+      </c>
+      <c r="D26" s="3">
+        <v>59.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
         <v>78.64</v>
       </c>
-      <c r="D23" s="4">
-        <v>3.97</v>
+      <c r="D27" s="3">
+        <v>78.64</v>
       </c>
     </row>
   </sheetData>
@@ -1581,13 +1760,410 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>49.83</v>
+      </c>
+      <c r="D2" s="3">
+        <v>49.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>104.53</v>
+      </c>
+      <c r="D4" s="3">
+        <v>104.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>24.35</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-24.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>761.54</v>
+      </c>
+      <c r="D6" s="3">
+        <v>761.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>205.48</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-205.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>26.38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-26.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>220</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22.21</v>
+      </c>
+      <c r="D10" s="3">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="D11" s="3">
+        <v>35.159999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>547</v>
+      </c>
+      <c r="D13" s="3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>52.97</v>
+      </c>
+      <c r="D14" s="3">
+        <v>52.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>52.62</v>
+      </c>
+      <c r="D15" s="3">
+        <v>52.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>568.14</v>
+      </c>
+      <c r="D16" s="3">
+        <v>568.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>26.04</v>
+      </c>
+      <c r="D17" s="3">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>106.97</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-106.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>160.78</v>
+      </c>
+      <c r="D19" s="3">
+        <v>160.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>49.31</v>
+      </c>
+      <c r="D20" s="3">
+        <v>49.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>102.25</v>
+      </c>
+      <c r="D23" s="3">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>51.06</v>
+      </c>
+      <c r="D24" s="3">
+        <v>51.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>42.28</v>
+      </c>
+      <c r="D25" s="3">
+        <v>42.28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16.11</v>
+      </c>
+      <c r="D26" s="3">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>392.82</v>
+      </c>
+      <c r="D27" s="3">
+        <v>392.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -1612,13 +2188,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>49.83</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>-1.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1626,13 +2202,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1640,13 +2216,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>113.83</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>104.53</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>-9.3000000000000007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,13 +2230,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>795.27</v>
+        <v>0.49</v>
       </c>
       <c r="C5" s="2">
-        <v>761.54</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-33.729999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,13 +2244,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>19.29</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>22.21</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2.92</v>
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,13 +2258,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="D7" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1696,13 +2272,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>51.78</v>
+        <v>0.44</v>
       </c>
       <c r="C8" s="2">
-        <v>35.159999999999997</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-16.62</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1710,13 +2286,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>50.51</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-0.51</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,13 +2300,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>577.95000000000005</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>547</v>
+        <v>0.44</v>
       </c>
       <c r="D10" s="3">
-        <v>-30.95</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1738,13 +2314,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>52.97</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>-7.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1752,13 +2328,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>52.57</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>52.62</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.05</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1766,13 +2342,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>546.46</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>568.14</v>
-      </c>
-      <c r="D13" s="4">
-        <v>21.68</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1780,13 +2356,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>26.04</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>-23.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1794,13 +2370,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>141.34</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>160.78</v>
-      </c>
-      <c r="D15" s="4">
-        <v>19.440000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1808,13 +2384,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>49.22</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>49.31</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.09</v>
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1822,13 +2398,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
+        <v>0.52</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1836,13 +2412,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>58.93</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-8.93</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,13 +2426,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>70.540000000000006</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>102.25</v>
-      </c>
-      <c r="D19" s="4">
-        <v>31.71</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1864,13 +2440,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>51.06</v>
+        <v>0.99</v>
       </c>
       <c r="D20" s="3">
-        <v>-0.94</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1878,13 +2454,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>84.41</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>42.28</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>-42.13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1892,13 +2468,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>16.11</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>-40.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1906,13 +2482,69 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>315.66000000000003</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>392.82</v>
-      </c>
-      <c r="D23" s="4">
-        <v>77.16</v>
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -1920,15 +2552,411 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D23"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3159.72</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3159.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3012</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6540.92</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6540.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1152.02</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-1152.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42689.02</v>
+      </c>
+      <c r="D6" s="3">
+        <v>42689.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>13893.26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-13893.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1852.16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-1852.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>14843.35</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-14843.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1970.52</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1970.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3078.06</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3078.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1668</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>35325.85</v>
+      </c>
+      <c r="D13" s="3">
+        <v>35325.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3500.17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3500.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3492.62</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3492.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>37780.26</v>
+      </c>
+      <c r="D16" s="3">
+        <v>37780.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>634.48</v>
+      </c>
+      <c r="D17" s="3">
+        <v>634.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6237.46</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-6237.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9501.74</v>
+      </c>
+      <c r="D19" s="3">
+        <v>9501.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3057.44</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3057.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3037.96</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3037.96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3134.9</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3134.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6930.69</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6930.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3498.98</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3498.98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4246.92</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4246.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1822.9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1822.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>19568.46</v>
+      </c>
+      <c r="D27" s="3">
+        <v>19568.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -1953,13 +2981,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,13 +2995,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,13 +3009,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>643</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1995,13 +3023,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.04</v>
+        <v>618</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-618</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,13 +3037,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0.39</v>
+        <v>8359</v>
       </c>
       <c r="C6" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.06</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8359</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2026,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+        <v>1236</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-1236</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,13 +3065,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
+        <v>618</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-618</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,13 +3079,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
+        <v>1228</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-1228</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,13 +3093,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,13 +3107,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,13 +3121,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,13 +3135,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>4501</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4501</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,13 +3149,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="C14" s="2">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>-0.48</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,13 +3163,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0.94</v>
+        <v>334</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.06</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,13 +3177,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>0.98</v>
+        <v>4501</v>
       </c>
       <c r="C16" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4501</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,13 +3191,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,13 +3205,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
+        <v>460.5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-460.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,13 +3219,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>977</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>977</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,13 +3233,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2219,13 +3247,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="C21" s="2">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>-0.02</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,13 +3261,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="C22" s="2">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>-0.68</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2247,13 +3275,69 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>0.98</v>
+        <v>643</v>
       </c>
       <c r="C23" s="2">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>-0.06</v>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>334</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>334</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>334</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2906</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2906</v>
       </c>
     </row>
   </sheetData>
@@ -2261,354 +3345,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D23"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="4" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1674.12</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1870.22</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-196.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1587.75</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1424.67</v>
-      </c>
-      <c r="D3" s="4">
-        <v>163.08000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3343.28</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2824.49</v>
-      </c>
-      <c r="D4" s="4">
-        <v>518.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>20733.080000000002</v>
-      </c>
-      <c r="C5" s="2">
-        <v>30276.86</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-9543.7800000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1429.32</v>
-      </c>
-      <c r="C6" s="2">
-        <v>482.57</v>
-      </c>
-      <c r="D6" s="4">
-        <v>946.76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1972</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1702.48</v>
-      </c>
-      <c r="D8" s="4">
-        <v>269.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1668</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1670.71</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-2.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>16573.36</v>
-      </c>
-      <c r="C10" s="2">
-        <v>19902.52</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-3329.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1872.57</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2234.36</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-361.79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1718</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1713.5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2">
-        <v>18363.96</v>
-      </c>
-      <c r="C13" s="2">
-        <v>18670.939999999999</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-306.98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>202.72</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1444.92</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-1242.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4644.95</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1575.29</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3069.66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1569.12</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1579.66</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-10.54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1588.21</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1617.55</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-29.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1567.75</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1771.61</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-203.86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3478.94</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1843.07</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1635.86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1880.5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1998.37</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-117.87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2865.26</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2021.07</v>
-      </c>
-      <c r="D21" s="4">
-        <v>844.19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1602.94</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1888.45</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-285.51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
-        <v>13077.72</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9811.98</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3265.74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -2633,13 +3378,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>309</v>
-      </c>
-      <c r="D2" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2647,13 +3392,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>309</v>
-      </c>
-      <c r="D3" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2661,13 +3406,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>618</v>
-      </c>
-      <c r="D4" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,13 +3420,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>8359</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>8034</v>
-      </c>
-      <c r="D5" s="4">
-        <v>325</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2689,237 +3434,307 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>334</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="2">
-        <v>309</v>
-      </c>
-      <c r="D6" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>309</v>
+        <v>595</v>
       </c>
       <c r="D7" s="4">
-        <v>25</v>
+        <v>-595</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>309</v>
-      </c>
-      <c r="D8" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>4501</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>4326</v>
+        <v>130</v>
       </c>
       <c r="D9" s="4">
-        <v>175</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>309</v>
-      </c>
-      <c r="D10" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>309</v>
-      </c>
-      <c r="D11" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>4501</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>4326</v>
-      </c>
-      <c r="D12" s="4">
-        <v>175</v>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>309</v>
-      </c>
-      <c r="D13" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>927</v>
-      </c>
-      <c r="D14" s="4">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>309</v>
-      </c>
-      <c r="D15" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>309</v>
-      </c>
-      <c r="D16" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>309</v>
-      </c>
-      <c r="D17" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>309</v>
+        <v>95</v>
       </c>
       <c r="D18" s="4">
-        <v>334</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>309</v>
-      </c>
-      <c r="D19" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="C20" s="2">
-        <v>309</v>
-      </c>
-      <c r="D20" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>309</v>
-      </c>
-      <c r="D21" s="4">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="2">
-        <v>2906</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2163</v>
-      </c>
-      <c r="D22" s="4">
-        <v>743</v>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>500</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -2927,15 +3742,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D22"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -2963,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
+        <v>98.8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>98.8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2977,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2991,10 +3806,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3002,13 +3817,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>1000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3019,80 +3834,80 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>250</v>
+        <v>90.54</v>
       </c>
       <c r="D6" s="3">
-        <v>-250</v>
+        <v>90.54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>99.05</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="D7" s="4">
+        <v>-99.05</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
+      <c r="D8" s="4">
+        <v>-100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>97.77</v>
       </c>
       <c r="C9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-1000</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-97.77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
+        <v>99.07</v>
+      </c>
+      <c r="D11" s="3">
+        <v>99.07</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3103,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
+        <v>98.74</v>
+      </c>
+      <c r="D12" s="3">
+        <v>98.74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3117,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3131,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3142,13 +3957,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>500</v>
+        <v>97.36</v>
+      </c>
+      <c r="D15" s="3">
+        <v>97.36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3159,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
+        <v>95.24</v>
+      </c>
+      <c r="D16" s="3">
+        <v>95.24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3170,13 +3985,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>85.47</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
+      <c r="D17" s="4">
+        <v>-85.47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3187,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
+        <v>89.49</v>
+      </c>
+      <c r="D18" s="3">
+        <v>89.49</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3201,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D19" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3215,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3229,10 +4044,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D21" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3240,13 +4055,69 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>2000</v>
+        <v>99.48</v>
       </c>
       <c r="D22" s="3">
-        <v>-1500</v>
+        <v>99.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>100</v>
+      </c>
+      <c r="D23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>97.97</v>
+      </c>
+      <c r="D24" s="3">
+        <v>97.97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>98.63</v>
+      </c>
+      <c r="D25" s="3">
+        <v>98.63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>83.91</v>
+      </c>
+      <c r="D26" s="3">
+        <v>83.91</v>
       </c>
     </row>
   </sheetData>
@@ -3254,15 +4125,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D22"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -3287,13 +4158,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>98.84</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>98.8</v>
+        <v>2.44</v>
       </c>
       <c r="D2" s="3">
-        <v>-0.04</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,13 +4172,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
+        <v>1.56</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,13 +4186,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>98.6</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.4</v>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,13 +4200,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>92.61</v>
+        <v>3.12</v>
       </c>
       <c r="C5" s="2">
-        <v>90.54</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-2.0699999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-3.12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3346,80 +4217,80 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="4">
-        <v>100</v>
+        <v>3.31</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>100</v>
+        <v>3.58</v>
       </c>
       <c r="C7" s="2">
-        <v>99.07</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.93</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-3.58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>97.26</v>
+        <v>0.8</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
-        <v>-97.26</v>
+      <c r="D8" s="4">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>97.77</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C9" s="2">
-        <v>98.74</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>0.98</v>
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>98.75</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>100</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1.25</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>98.28</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>100</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1.72</v>
+        <v>0.93</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3427,13 +4298,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="2">
-        <v>97.8</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>97.36</v>
+        <v>1.86</v>
       </c>
       <c r="D12" s="3">
-        <v>-0.44</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3444,10 +4315,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>95.24</v>
-      </c>
-      <c r="D13" s="4">
-        <v>95.24</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3455,13 +4326,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>94.52</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>89.49</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-5.03</v>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3469,13 +4340,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
+        <v>3.13</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3.13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3483,13 +4354,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>100</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3497,13 +4368,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>72.73</v>
+        <v>2.72</v>
       </c>
       <c r="C17" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
-        <v>27.27</v>
+        <v>-2.72</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3511,13 +4382,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>99.48</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D18" s="3">
-        <v>-0.52</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3525,13 +4396,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>100</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
+        <v>1.82</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.82</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3539,13 +4410,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="2">
-        <v>99.13</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>97.97</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-1.1599999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3553,13 +4424,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>98.63</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-1.37</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3567,13 +4438,69 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>85.26</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>83.91</v>
+        <v>3.11</v>
       </c>
       <c r="D22" s="3">
-        <v>-1.35</v>
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2.4500000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3581,15 +4508,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D22"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -3617,10 +4544,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2.44</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2.44</v>
+        <v>78.83</v>
+      </c>
+      <c r="D2" s="3">
+        <v>78.83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3628,13 +4555,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>5.13</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>1.56</v>
+        <v>51.27</v>
       </c>
       <c r="D3" s="3">
-        <v>-3.57</v>
+        <v>51.27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3645,10 +4572,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.0499999999999998</v>
+        <v>67.75</v>
+      </c>
+      <c r="D4" s="3">
+        <v>67.75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3656,13 +4583,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>4.5199999999999996</v>
+        <v>96.74</v>
       </c>
       <c r="C5" s="2">
-        <v>3.31</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-1.21</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-96.74</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3673,80 +4600,80 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+        <v>87.01</v>
+      </c>
+      <c r="D6" s="3">
+        <v>87.01</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>88.94</v>
       </c>
       <c r="C7" s="2">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>0.93</v>
+        <v>-88.94</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>95.66</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
+      <c r="D8" s="4">
+        <v>-95.66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>1.27</v>
+        <v>79.12</v>
       </c>
       <c r="C9" s="2">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>0.59</v>
+        <v>-79.12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
+        <v>78.36</v>
+      </c>
+      <c r="D10" s="3">
+        <v>78.36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.75</v>
+        <v>70.099999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3754,13 +4681,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="2">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>3.13</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.76</v>
+        <v>90.15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>90.15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3771,10 +4698,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
+        <v>66.319999999999993</v>
+      </c>
+      <c r="D13" s="3">
+        <v>66.319999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3782,13 +4709,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>1.1399999999999999</v>
+        <v>73.709999999999994</v>
       </c>
       <c r="D14" s="3">
-        <v>-0.31</v>
+        <v>73.709999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3799,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.82</v>
+        <v>79.94</v>
+      </c>
+      <c r="D15" s="3">
+        <v>79.94</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3810,13 +4737,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="2">
-        <v>4.67</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>63.37</v>
       </c>
       <c r="D16" s="3">
-        <v>-4.67</v>
+        <v>63.37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3824,13 +4751,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>76.55</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
+      <c r="D17" s="4">
+        <v>-76.55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3841,10 +4768,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>3.11</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3.11</v>
+        <v>75.819999999999993</v>
+      </c>
+      <c r="D18" s="3">
+        <v>75.819999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3852,13 +4779,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>1.1100000000000001</v>
+        <v>55.42</v>
       </c>
       <c r="D19" s="3">
-        <v>-2.59</v>
+        <v>55.42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3866,13 +4793,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="2">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>61.42</v>
       </c>
       <c r="D20" s="3">
-        <v>-3.51</v>
+        <v>61.42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3880,13 +4807,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>0</v>
+        <v>67.64</v>
       </c>
       <c r="D21" s="3">
-        <v>-1.56</v>
+        <v>67.64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,13 +4821,69 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>2.4500000000000002</v>
+        <v>75.47</v>
       </c>
       <c r="D22" s="3">
-        <v>-0.12</v>
+        <v>75.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>63.86</v>
+      </c>
+      <c r="D23" s="3">
+        <v>63.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>77.69</v>
+      </c>
+      <c r="D24" s="3">
+        <v>77.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>62.95</v>
+      </c>
+      <c r="D25" s="3">
+        <v>62.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>69.2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>69.2</v>
       </c>
     </row>
   </sheetData>
@@ -3908,15 +4891,398 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D22"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>105.23</v>
+      </c>
+      <c r="D4" s="3">
+        <v>105.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>23.63</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-23.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>759.67</v>
+      </c>
+      <c r="D6" s="3">
+        <v>759.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>190.32</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-190.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>50.22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-50.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>209.74</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-209.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42.01</v>
+      </c>
+      <c r="D10" s="3">
+        <v>42.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>483.51</v>
+      </c>
+      <c r="D12" s="3">
+        <v>483.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>533.29</v>
+      </c>
+      <c r="D15" s="3">
+        <v>533.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12.23</v>
+      </c>
+      <c r="D16" s="3">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2">
+        <v>83.74</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-83.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>154.15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>154.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>49.51</v>
+      </c>
+      <c r="D19" s="3">
+        <v>49.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>49.95</v>
+      </c>
+      <c r="D20" s="3">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>103.31</v>
+      </c>
+      <c r="D22" s="3">
+        <v>103.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>85</v>
+      </c>
+      <c r="D24" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>455</v>
+      </c>
+      <c r="D26" s="3">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -3941,13 +5307,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>82.49</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>78.83</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>-3.66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3955,13 +5321,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>55.27</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>51.27</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>-4.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3969,13 +5335,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>68.91</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>67.75</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>-1.1599999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3983,13 +5349,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>91.55</v>
+        <v>0.47</v>
       </c>
       <c r="C5" s="2">
-        <v>87.01</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-4.53</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4000,80 +5366,80 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>78.36</v>
-      </c>
-      <c r="D6" s="4">
-        <v>78.36</v>
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>72.92</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-2.82</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>79.900000000000006</v>
+        <v>0.84</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
-        <v>-79.900000000000006</v>
+      <c r="D8" s="4">
+        <v>-0.84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>93.17</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>90.15</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-3.02</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>69.06</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>66.319999999999993</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>-2.74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>70.31</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>73.709999999999994</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3.41</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4081,13 +5447,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="2">
-        <v>89.77</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>79.94</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>-9.83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4098,10 +5464,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>63.37</v>
-      </c>
-      <c r="D13" s="4">
-        <v>63.37</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4109,13 +5475,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>73.150000000000006</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>75.819999999999993</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2.68</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4123,13 +5489,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>49.52</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>55.42</v>
-      </c>
-      <c r="D15" s="4">
-        <v>5.9</v>
+        <v>0.99</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4137,13 +5503,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="2">
-        <v>74.010000000000005</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>61.42</v>
+        <v>0.24</v>
       </c>
       <c r="D16" s="3">
-        <v>-12.59</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4151,13 +5517,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>67.84</v>
+        <v>0.99</v>
       </c>
       <c r="C17" s="2">
-        <v>67.64</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-0.2</v>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-0.99</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4165,13 +5531,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="2">
-        <v>73.06</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>75.47</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.41</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4179,13 +5545,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>80.5</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>63.86</v>
+        <v>0.99</v>
       </c>
       <c r="D19" s="3">
-        <v>-16.63</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,13 +5559,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="2">
-        <v>83.69</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>77.69</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>-6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4207,13 +5573,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>51.61</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>62.95</v>
-      </c>
-      <c r="D21" s="4">
-        <v>11.34</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4221,667 +5587,69 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>73.569999999999993</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>69.2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>-4.37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>56.13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>50</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-6.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>97.94</v>
-      </c>
-      <c r="C4" s="2">
-        <v>105.23</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7.29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>891.46</v>
-      </c>
-      <c r="C5" s="2">
-        <v>759.67</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-131.79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>42.01</v>
-      </c>
-      <c r="D6" s="4">
-        <v>42.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>51.11</v>
-      </c>
-      <c r="C7" s="2">
-        <v>60</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2">
-        <v>580.36</v>
-      </c>
-      <c r="C9" s="2">
-        <v>483.51</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-96.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
-        <v>69.75</v>
-      </c>
-      <c r="C10" s="2">
-        <v>60</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-9.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2">
-        <v>541.59</v>
-      </c>
-      <c r="C12" s="2">
-        <v>533.29</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12.23</v>
-      </c>
-      <c r="D13" s="4">
-        <v>12.23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2">
-        <v>154.15</v>
-      </c>
-      <c r="D14" s="4">
-        <v>104.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
-        <v>50.52</v>
-      </c>
-      <c r="C15" s="2">
-        <v>49.51</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-1.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2">
-        <v>50.48</v>
-      </c>
-      <c r="C16" s="2">
-        <v>49.95</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2">
-        <v>59.91</v>
-      </c>
-      <c r="C17" s="2">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-9.91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2">
-        <v>103.31</v>
-      </c>
-      <c r="D18" s="4">
-        <v>48.31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2">
-        <v>60</v>
-      </c>
-      <c r="C19" s="2">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2">
-        <v>60</v>
-      </c>
-      <c r="C20" s="2">
-        <v>85</v>
-      </c>
-      <c r="D20" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2">
-        <v>59.95</v>
-      </c>
-      <c r="C21" s="2">
-        <v>50</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-9.9499999999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2">
-        <v>324.16000000000003</v>
-      </c>
-      <c r="C22" s="2">
-        <v>455</v>
-      </c>
-      <c r="D22" s="4">
-        <v>130.84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DIV12_Analysis/ComparedResults/DIV12_Tables.xlsx
+++ b/DIV12_Analysis/ComparedResults/DIV12_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\DIV12\DIV12_Analysis\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFA42B7-8370-492B-94DF-A7B5068BEA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC12EEDD-A466-487D-B63B-7F1F54D329B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,8 +517,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
@@ -539,13 +538,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>168195.6</v>
+        <v>183165.04</v>
       </c>
       <c r="B2" s="2">
         <v>187259.98</v>
       </c>
       <c r="C2" s="2">
-        <v>-19064.38</v>
+        <v>-4094.94</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -589,13 +588,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>97.83</v>
+      </c>
+      <c r="C2" s="2">
         <v>100</v>
       </c>
-      <c r="C2" s="2">
-        <v>78.72</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-21.28</v>
+      <c r="D2" s="4">
+        <v>2.17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,13 +602,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
         <v>94.05</v>
       </c>
-      <c r="C3" s="2">
-        <v>95.74</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.7</v>
+      <c r="D3" s="3">
+        <v>-5.95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,13 +616,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
         <v>96.98</v>
       </c>
-      <c r="C4" s="2">
-        <v>98.37</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.38</v>
+      <c r="D4" s="3">
+        <v>-3.02</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,13 +630,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>92.08</v>
+      </c>
+      <c r="C5" s="2">
         <v>93.15</v>
       </c>
-      <c r="C5" s="2">
-        <v>92.67</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.48</v>
+      <c r="D5" s="4">
+        <v>1.07</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,13 +644,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>100</v>
+        <v>98.39</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
+      <c r="D6" s="4">
+        <v>1.61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,13 +672,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>100</v>
+        <v>97.92</v>
       </c>
       <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
+      <c r="D8" s="4">
+        <v>2.08</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +686,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
         <v>98.7</v>
       </c>
-      <c r="C9" s="2">
-        <v>100</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1.3</v>
+      <c r="D9" s="3">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +700,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>98.22</v>
+      </c>
+      <c r="C10" s="2">
         <v>99.2</v>
       </c>
-      <c r="C10" s="2">
-        <v>98.65</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-0.55000000000000004</v>
+      <c r="D10" s="4">
+        <v>0.98</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +714,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
         <v>93.42</v>
       </c>
-      <c r="C11" s="2">
-        <v>93.15</v>
-      </c>
       <c r="D11" s="3">
-        <v>-0.27</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,13 +728,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
         <v>70.11</v>
       </c>
-      <c r="C12" s="2">
-        <v>100</v>
-      </c>
-      <c r="D12" s="4">
-        <v>29.89</v>
+      <c r="D12" s="3">
+        <v>-29.89</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +742,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>94.45</v>
+      </c>
+      <c r="C13" s="2">
         <v>97.65</v>
       </c>
-      <c r="C13" s="2">
-        <v>97.73</v>
-      </c>
       <c r="D13" s="4">
-        <v>0.08</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +756,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>88.89</v>
+      </c>
+      <c r="C14" s="2">
         <v>86.67</v>
       </c>
-      <c r="C14" s="2">
-        <v>89.13</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2.46</v>
+      <c r="D14" s="3">
+        <v>-2.2200000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,13 +770,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>87.11</v>
+      </c>
+      <c r="C15" s="2">
         <v>97.23</v>
       </c>
-      <c r="C15" s="2">
-        <v>75.180000000000007</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-22.05</v>
+      <c r="D15" s="4">
+        <v>10.119999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,13 +784,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>96.72</v>
+      </c>
+      <c r="C16" s="2">
         <v>94.34</v>
       </c>
-      <c r="C16" s="2">
-        <v>93.55</v>
-      </c>
       <c r="D16" s="3">
-        <v>-0.79</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,13 +798,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2">
         <v>99.35</v>
       </c>
-      <c r="C17" s="2">
-        <v>98.57</v>
-      </c>
       <c r="D17" s="3">
-        <v>-0.78</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +812,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>98.89</v>
+      </c>
+      <c r="C18" s="2">
         <v>60.92</v>
       </c>
-      <c r="C18" s="2">
-        <v>98.36</v>
-      </c>
-      <c r="D18" s="4">
-        <v>37.44</v>
+      <c r="D18" s="3">
+        <v>-37.97</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +826,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>99.5</v>
+      </c>
+      <c r="C19" s="2">
         <v>99.23</v>
       </c>
-      <c r="C19" s="2">
-        <v>99.48</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.25</v>
+      <c r="D19" s="3">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,13 +854,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2">
         <v>98.8</v>
       </c>
-      <c r="C21" s="2">
-        <v>100</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.2</v>
+      <c r="D21" s="3">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -869,13 +868,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>100</v>
+        <v>89.38</v>
       </c>
       <c r="C22" s="2">
         <v>100</v>
       </c>
-      <c r="D22" s="2">
-        <v>0</v>
+      <c r="D22" s="4">
+        <v>10.62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,13 +882,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
+        <v>90.3</v>
+      </c>
+      <c r="C23" s="2">
         <v>83.86</v>
       </c>
-      <c r="C23" s="2">
-        <v>89.57</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5.7</v>
+      <c r="D23" s="3">
+        <v>-6.43</v>
       </c>
     </row>
   </sheetData>
@@ -944,13 +943,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="C3" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="C3" s="2">
-        <v>6.67</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4.1399999999999997</v>
+      <c r="D3" s="3">
+        <v>-1.95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -958,13 +957,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="C4" s="2">
         <v>2.59</v>
       </c>
-      <c r="C4" s="2">
-        <v>5.52</v>
-      </c>
       <c r="D4" s="4">
-        <v>2.93</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -972,13 +971,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>4.76</v>
+      </c>
+      <c r="C5" s="2">
         <v>4.92</v>
       </c>
-      <c r="C5" s="2">
-        <v>3.81</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-1.1100000000000001</v>
+      <c r="D5" s="4">
+        <v>0.16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1014,13 +1013,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="C8" s="2">
         <v>3.57</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-3.57</v>
+      <c r="D8" s="4">
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1042,13 +1041,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="C10" s="2">
         <v>2.25</v>
       </c>
-      <c r="C10" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-1.1399999999999999</v>
+      <c r="D10" s="4">
+        <v>0.71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1056,13 +1055,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C11" s="2">
         <v>1.41</v>
       </c>
-      <c r="C11" s="2">
-        <v>2.94</v>
-      </c>
       <c r="D11" s="4">
-        <v>1.53</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1070,13 +1069,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
         <v>3.28</v>
       </c>
-      <c r="C12" s="2">
-        <v>3.33</v>
-      </c>
       <c r="D12" s="4">
-        <v>0.05</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1084,13 +1083,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>2.46</v>
+      </c>
+      <c r="C13" s="2">
         <v>2.14</v>
       </c>
-      <c r="C13" s="2">
-        <v>2.23</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.08</v>
+      <c r="D13" s="3">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,13 +1097,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="C14" s="2">
         <v>4.62</v>
       </c>
-      <c r="C14" s="2">
-        <v>4.88</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.26</v>
+      <c r="D14" s="3">
+        <v>-1.63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,13 +1111,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="C15" s="2">
         <v>4.2699999999999996</v>
       </c>
-      <c r="C15" s="2">
-        <v>1.31</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-2.96</v>
+      <c r="D15" s="4">
+        <v>1.06</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>1.72</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.72</v>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,13 +1139,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>7.14</v>
+      </c>
+      <c r="C17" s="2">
         <v>3.9</v>
       </c>
-      <c r="C17" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1.9</v>
+      <c r="D17" s="3">
+        <v>-3.25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3.33</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1168,13 +1167,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
         <v>0.78</v>
       </c>
-      <c r="C19" s="2">
-        <v>3.12</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2.35</v>
+      <c r="D19" s="3">
+        <v>-6.22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1196,13 +1195,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1210,13 +1209,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="2">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>-2.97</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1224,13 +1223,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="C23" s="2">
         <v>1.79</v>
       </c>
-      <c r="C23" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1.41</v>
+      <c r="D23" s="3">
+        <v>-1.36</v>
       </c>
     </row>
   </sheetData>
@@ -1271,13 +1270,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>78.62</v>
+      </c>
+      <c r="C2" s="2">
         <v>88.11</v>
       </c>
-      <c r="C2" s="2">
-        <v>86.21</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-1.89</v>
+      <c r="D2" s="4">
+        <v>9.49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,13 +1284,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>58.34</v>
+      </c>
+      <c r="C3" s="2">
         <v>63.25</v>
       </c>
-      <c r="C3" s="2">
-        <v>52.45</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-10.81</v>
+      <c r="D3" s="4">
+        <v>4.91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,13 +1298,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="C4" s="2">
         <v>80.59</v>
       </c>
-      <c r="C4" s="2">
-        <v>70.36</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-10.220000000000001</v>
+      <c r="D4" s="4">
+        <v>16.43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1313,13 +1312,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>90.23</v>
+      </c>
+      <c r="C5" s="2">
         <v>92.54</v>
       </c>
-      <c r="C5" s="2">
-        <v>89.51</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-3.03</v>
+      <c r="D5" s="4">
+        <v>2.31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1327,13 +1326,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>83.42</v>
+      </c>
+      <c r="C6" s="2">
         <v>88.85</v>
       </c>
-      <c r="C6" s="2">
-        <v>83.03</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-5.83</v>
+      <c r="D6" s="4">
+        <v>5.43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1355,13 +1354,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>71.33</v>
+      </c>
+      <c r="C8" s="2">
         <v>86.27</v>
       </c>
-      <c r="C8" s="2">
-        <v>62.86</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-23.41</v>
+      <c r="D8" s="4">
+        <v>14.94</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,13 +1368,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>72.11</v>
+      </c>
+      <c r="C9" s="2">
         <v>75.33</v>
       </c>
-      <c r="C9" s="2">
-        <v>72.89</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-2.44</v>
+      <c r="D9" s="4">
+        <v>3.22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,13 +1382,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>93.28</v>
+      </c>
+      <c r="C10" s="2">
         <v>95.47</v>
       </c>
-      <c r="C10" s="2">
-        <v>92.68</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-2.78</v>
+      <c r="D10" s="4">
+        <v>2.19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,13 +1396,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>59.25</v>
+      </c>
+      <c r="C11" s="2">
         <v>79.33</v>
       </c>
-      <c r="C11" s="2">
-        <v>63.62</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-15.7</v>
+      <c r="D11" s="4">
+        <v>20.07</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,13 +1410,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>69.8</v>
+      </c>
+      <c r="C12" s="2">
         <v>72.8</v>
       </c>
-      <c r="C12" s="2">
-        <v>71.7</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-1.1000000000000001</v>
+      <c r="D12" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,13 +1424,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>83.96</v>
+      </c>
+      <c r="C13" s="2">
         <v>93.05</v>
       </c>
-      <c r="C13" s="2">
-        <v>85.27</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-7.78</v>
+      <c r="D13" s="4">
+        <v>9.09</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,13 +1438,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>11.17</v>
+      </c>
+      <c r="C14" s="2">
         <v>68.08</v>
       </c>
-      <c r="C14" s="2">
-        <v>62.52</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-5.56</v>
+      <c r="D14" s="4">
+        <v>56.91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,13 +1452,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="C15" s="2">
         <v>86.14</v>
       </c>
-      <c r="C15" s="2">
-        <v>79.22</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-6.92</v>
+      <c r="D15" s="4">
+        <v>6.88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,13 +1466,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>58.25</v>
+      </c>
+      <c r="C16" s="2">
         <v>60.24</v>
       </c>
-      <c r="C16" s="2">
-        <v>53.76</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-6.48</v>
+      <c r="D16" s="4">
+        <v>1.99</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,13 +1480,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>66.94</v>
+      </c>
+      <c r="C17" s="2">
         <v>84.99</v>
       </c>
-      <c r="C17" s="2">
-        <v>56.22</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-28.77</v>
+      <c r="D17" s="4">
+        <v>18.05</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,13 +1494,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>68.98</v>
+      </c>
+      <c r="C18" s="2">
         <v>66.38</v>
       </c>
-      <c r="C18" s="2">
-        <v>68.97</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.59</v>
+      <c r="D18" s="3">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>74.59</v>
+      </c>
+      <c r="C19" s="2">
         <v>82.49</v>
       </c>
-      <c r="C19" s="2">
-        <v>71.66</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-10.83</v>
+      <c r="D19" s="4">
+        <v>7.9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,13 +1522,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>77.45</v>
+      </c>
+      <c r="C20" s="2">
         <v>73.22</v>
       </c>
-      <c r="C20" s="2">
-        <v>68.489999999999995</v>
-      </c>
       <c r="D20" s="3">
-        <v>-4.7300000000000004</v>
+        <v>-4.2300000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,13 +1536,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>85.66</v>
+      </c>
+      <c r="C21" s="2">
         <v>90.21</v>
       </c>
-      <c r="C21" s="2">
-        <v>78.19</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-12.02</v>
+      <c r="D21" s="4">
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="C22" s="2">
         <v>51.3</v>
       </c>
-      <c r="C22" s="2">
-        <v>59.53</v>
-      </c>
-      <c r="D22" s="4">
-        <v>8.2200000000000006</v>
+      <c r="D22" s="3">
+        <v>-16.190000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,13 +1564,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2">
         <v>74.67</v>
       </c>
-      <c r="C23" s="2">
-        <v>78.64</v>
-      </c>
       <c r="D23" s="4">
-        <v>3.97</v>
+        <v>3.67</v>
       </c>
     </row>
   </sheetData>
@@ -1590,7 +1589,7 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1612,13 +1611,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2">
         <v>51</v>
       </c>
-      <c r="C2" s="2">
-        <v>49.83</v>
-      </c>
       <c r="D2" s="3">
-        <v>-1.17</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1640,13 +1639,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>101.62</v>
+      </c>
+      <c r="C4" s="2">
         <v>113.83</v>
       </c>
-      <c r="C4" s="2">
-        <v>104.53</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-9.3000000000000007</v>
+      <c r="D4" s="4">
+        <v>12.21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,13 +1653,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>824.95</v>
+      </c>
+      <c r="C5" s="2">
         <v>795.27</v>
       </c>
-      <c r="C5" s="2">
-        <v>761.54</v>
-      </c>
       <c r="D5" s="3">
-        <v>-33.729999999999997</v>
+        <v>-29.68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,13 +1667,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>44.51</v>
+      </c>
+      <c r="C6" s="2">
         <v>19.29</v>
       </c>
-      <c r="C6" s="2">
-        <v>22.21</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2.92</v>
+      <c r="D6" s="3">
+        <v>-25.22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1696,13 +1695,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>53.23</v>
+      </c>
+      <c r="C8" s="2">
         <v>51.78</v>
       </c>
-      <c r="C8" s="2">
-        <v>35.159999999999997</v>
-      </c>
       <c r="D8" s="3">
-        <v>-16.62</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1710,13 +1709,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2">
         <v>50.51</v>
       </c>
-      <c r="C9" s="2">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-0.51</v>
+      <c r="D9" s="4">
+        <v>0.51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,13 +1723,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>509.03</v>
+      </c>
+      <c r="C10" s="2">
         <v>577.95000000000005</v>
       </c>
-      <c r="C10" s="2">
-        <v>547</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-30.95</v>
+      <c r="D10" s="4">
+        <v>68.92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1738,13 +1737,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>69.92</v>
+      </c>
+      <c r="C11" s="2">
         <v>60</v>
       </c>
-      <c r="C11" s="2">
-        <v>52.97</v>
-      </c>
       <c r="D11" s="3">
-        <v>-7.03</v>
+        <v>-9.92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1752,13 +1751,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2">
         <v>52.57</v>
       </c>
-      <c r="C12" s="2">
-        <v>52.62</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.05</v>
+      <c r="D12" s="3">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1766,13 +1765,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>507.21</v>
+      </c>
+      <c r="C13" s="2">
         <v>546.46</v>
       </c>
-      <c r="C13" s="2">
-        <v>568.14</v>
-      </c>
       <c r="D13" s="4">
-        <v>21.68</v>
+        <v>39.25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1780,13 +1779,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>49.85</v>
+      </c>
+      <c r="C14" s="2">
         <v>50</v>
       </c>
-      <c r="C14" s="2">
-        <v>26.04</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-23.96</v>
+      <c r="D14" s="4">
+        <v>0.15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1794,13 +1793,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>158.84</v>
+      </c>
+      <c r="C15" s="2">
         <v>141.34</v>
       </c>
-      <c r="C15" s="2">
-        <v>160.78</v>
-      </c>
-      <c r="D15" s="4">
-        <v>19.440000000000001</v>
+      <c r="D15" s="3">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1808,13 +1807,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
         <v>49.22</v>
       </c>
-      <c r="C16" s="2">
-        <v>49.31</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.09</v>
+      <c r="D16" s="3">
+        <v>-0.78</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1836,13 +1835,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2">
         <v>58.93</v>
       </c>
-      <c r="C18" s="2">
-        <v>50</v>
-      </c>
       <c r="D18" s="3">
-        <v>-8.93</v>
+        <v>-2.0699999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,13 +1849,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2">
         <v>70.540000000000006</v>
       </c>
-      <c r="C19" s="2">
-        <v>102.25</v>
-      </c>
-      <c r="D19" s="4">
-        <v>31.71</v>
+      <c r="D19" s="3">
+        <v>-29.46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1864,13 +1863,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>59.99</v>
+      </c>
+      <c r="C20" s="2">
         <v>52</v>
       </c>
-      <c r="C20" s="2">
-        <v>51.06</v>
-      </c>
       <c r="D20" s="3">
-        <v>-0.94</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1878,13 +1877,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>81.36</v>
+      </c>
+      <c r="C21" s="2">
         <v>84.41</v>
       </c>
-      <c r="C21" s="2">
-        <v>42.28</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-42.13</v>
+      <c r="D21" s="4">
+        <v>3.05</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1892,13 +1891,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>59.9</v>
+      </c>
+      <c r="C22" s="2">
         <v>57</v>
       </c>
-      <c r="C22" s="2">
-        <v>16.11</v>
-      </c>
       <c r="D22" s="3">
-        <v>-40.89</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1906,13 +1905,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
+        <v>461</v>
+      </c>
+      <c r="C23" s="2">
         <v>315.66000000000003</v>
       </c>
-      <c r="C23" s="2">
-        <v>392.82</v>
-      </c>
-      <c r="D23" s="4">
-        <v>77.16</v>
+      <c r="D23" s="3">
+        <v>-145.34</v>
       </c>
     </row>
   </sheetData>
@@ -1995,13 +1994,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.99</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.95</v>
-      </c>
       <c r="D5" s="3">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,13 +2008,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.39</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.06</v>
+      <c r="D6" s="3">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,13 +2106,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
+      <c r="D13" s="4">
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2124,10 +2123,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-0.48</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,13 +2134,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.94</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.06</v>
+      <c r="D15" s="3">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,13 +2148,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>0.98</v>
       </c>
-      <c r="C16" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
+      <c r="D16" s="3">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2222,10 +2221,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-0.02</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2236,10 +2235,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-0.68</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2247,13 +2246,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
         <v>0.98</v>
       </c>
-      <c r="C23" s="2">
-        <v>0.92</v>
-      </c>
       <c r="D23" s="3">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -2270,8 +2269,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="2" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,10 +2277,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2293,13 +2291,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>3585.32</v>
+      </c>
+      <c r="C2" s="2">
         <v>3593.52</v>
       </c>
-      <c r="C2" s="2">
-        <v>3159.72</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-433.8</v>
+      <c r="D2" s="4">
+        <v>8.19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,13 +2305,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>3082.27</v>
+      </c>
+      <c r="C3" s="2">
         <v>2921.17</v>
       </c>
-      <c r="C3" s="2">
-        <v>3012</v>
-      </c>
-      <c r="D3" s="4">
-        <v>90.83</v>
+      <c r="D3" s="3">
+        <v>-161.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2321,13 +2319,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>6569.72</v>
+      </c>
+      <c r="C4" s="2">
         <v>6629.13</v>
       </c>
-      <c r="C4" s="2">
-        <v>6540.92</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-88.21</v>
+      <c r="D4" s="4">
+        <v>59.41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2335,13 +2333,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>55321.93</v>
+      </c>
+      <c r="C5" s="2">
         <v>57496.76</v>
       </c>
-      <c r="C5" s="2">
-        <v>42689.02</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-14807.74</v>
+      <c r="D5" s="4">
+        <v>2174.83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2349,13 +2347,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>1996.29</v>
+      </c>
+      <c r="C6" s="2">
         <v>482.57</v>
       </c>
-      <c r="C6" s="2">
-        <v>1970.52</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1487.95</v>
+      <c r="D6" s="3">
+        <v>-1513.72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,13 +2375,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>3177.68</v>
+      </c>
+      <c r="C8" s="2">
         <v>3438.94</v>
       </c>
-      <c r="C8" s="2">
-        <v>3078.06</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-360.88</v>
+      <c r="D8" s="4">
+        <v>261.26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2391,13 +2389,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>3366.25</v>
+      </c>
+      <c r="C9" s="2">
         <v>3344.98</v>
       </c>
-      <c r="C9" s="2">
-        <v>1668</v>
-      </c>
       <c r="D9" s="3">
-        <v>-1676.98</v>
+        <v>-21.26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2405,13 +2403,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>36767.75</v>
+      </c>
+      <c r="C10" s="2">
         <v>39864.03</v>
       </c>
-      <c r="C10" s="2">
-        <v>35325.85</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-4538.18</v>
+      <c r="D10" s="4">
+        <v>3096.28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,13 +2417,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>3760.88</v>
+      </c>
+      <c r="C11" s="2">
         <v>4127.8599999999997</v>
       </c>
-      <c r="C11" s="2">
-        <v>3500.17</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-627.69000000000005</v>
+      <c r="D11" s="4">
+        <v>366.98</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2433,13 +2431,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>3259.18</v>
+      </c>
+      <c r="C12" s="2">
         <v>3312.02</v>
       </c>
-      <c r="C12" s="2">
-        <v>3492.62</v>
-      </c>
       <c r="D12" s="4">
-        <v>180.6</v>
+        <v>52.84</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,13 +2445,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>29396.34</v>
+      </c>
+      <c r="C13" s="2">
         <v>37655.980000000003</v>
       </c>
-      <c r="C13" s="2">
-        <v>37780.26</v>
-      </c>
       <c r="D13" s="4">
-        <v>124.28</v>
+        <v>8259.64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,13 +2459,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>1537.64</v>
+      </c>
+      <c r="C14" s="2">
         <v>1444.92</v>
       </c>
-      <c r="C14" s="2">
-        <v>634.48</v>
-      </c>
       <c r="D14" s="3">
-        <v>-810.44</v>
+        <v>-92.72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,13 +2473,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>10327.620000000001</v>
+      </c>
+      <c r="C15" s="2">
         <v>5415.12</v>
       </c>
-      <c r="C15" s="2">
-        <v>9501.74</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4086.62</v>
+      <c r="D15" s="3">
+        <v>-4912.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,13 +2487,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>1585.52</v>
+      </c>
+      <c r="C16" s="2">
         <v>3091.72</v>
       </c>
-      <c r="C16" s="2">
-        <v>3057.44</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-34.28</v>
+      <c r="D16" s="4">
+        <v>1506.2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,13 +2501,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>2750.01</v>
+      </c>
+      <c r="C17" s="2">
         <v>3291.69</v>
       </c>
-      <c r="C17" s="2">
-        <v>3037.96</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-253.73</v>
+      <c r="D17" s="4">
+        <v>541.67999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,13 +2515,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>3656.23</v>
+      </c>
+      <c r="C18" s="2">
         <v>3504.19</v>
       </c>
-      <c r="C18" s="2">
-        <v>3134.9</v>
-      </c>
       <c r="D18" s="3">
-        <v>-369.29</v>
+        <v>-152.04</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,13 +2529,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>4806.6099999999997</v>
+      </c>
+      <c r="C19" s="2">
         <v>4256.45</v>
       </c>
-      <c r="C19" s="2">
-        <v>6930.69</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2674.24</v>
+      <c r="D19" s="3">
+        <v>-550.16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,13 +2543,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>4079.38</v>
+      </c>
+      <c r="C20" s="2">
         <v>3741.99</v>
       </c>
-      <c r="C20" s="2">
-        <v>3498.98</v>
-      </c>
       <c r="D20" s="3">
-        <v>-243.01</v>
+        <v>-337.4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,13 +2557,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>5562.02</v>
+      </c>
+      <c r="C21" s="2">
         <v>4854.46</v>
       </c>
-      <c r="C21" s="2">
-        <v>4246.92</v>
-      </c>
       <c r="D21" s="3">
-        <v>-607.53</v>
+        <v>-707.56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2573,13 +2571,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>2989.54</v>
+      </c>
+      <c r="C22" s="2">
         <v>3715.99</v>
       </c>
-      <c r="C22" s="2">
-        <v>1822.9</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-1893.09</v>
+      <c r="D22" s="4">
+        <v>726.45</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,13 +2585,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
+        <v>24556.86</v>
+      </c>
+      <c r="C23" s="2">
         <v>19355.5</v>
       </c>
-      <c r="C23" s="2">
-        <v>19568.46</v>
-      </c>
-      <c r="D23" s="4">
-        <v>212.96</v>
+      <c r="D23" s="3">
+        <v>-5201.37</v>
       </c>
     </row>
   </sheetData>
@@ -2634,13 +2632,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C2" s="2">
         <v>309</v>
       </c>
-      <c r="D2" s="4">
-        <v>25</v>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2648,13 +2646,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C3" s="2">
         <v>309</v>
       </c>
-      <c r="D3" s="4">
-        <v>25</v>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2662,13 +2660,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="C4" s="2">
         <v>618</v>
       </c>
-      <c r="D4" s="4">
-        <v>25</v>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,13 +2674,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>8359</v>
+        <v>8034</v>
       </c>
       <c r="C5" s="2">
         <v>8034</v>
       </c>
-      <c r="D5" s="4">
-        <v>325</v>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2690,13 +2688,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C6" s="2">
         <v>309</v>
       </c>
-      <c r="D6" s="4">
-        <v>25</v>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2704,13 +2702,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C7" s="2">
         <v>309</v>
       </c>
-      <c r="D7" s="4">
-        <v>25</v>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2718,13 +2716,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C8" s="2">
         <v>309</v>
       </c>
-      <c r="D8" s="4">
-        <v>25</v>
+      <c r="D8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,13 +2730,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>4501</v>
+        <v>4326</v>
       </c>
       <c r="C9" s="2">
         <v>4326</v>
       </c>
-      <c r="D9" s="4">
-        <v>175</v>
+      <c r="D9" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2746,13 +2744,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C10" s="2">
         <v>309</v>
       </c>
-      <c r="D10" s="4">
-        <v>25</v>
+      <c r="D10" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2760,13 +2758,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C11" s="2">
         <v>309</v>
       </c>
-      <c r="D11" s="4">
-        <v>25</v>
+      <c r="D11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2774,13 +2772,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="2">
-        <v>4501</v>
+        <v>4326</v>
       </c>
       <c r="C12" s="2">
         <v>4326</v>
       </c>
-      <c r="D12" s="4">
-        <v>175</v>
+      <c r="D12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2788,13 +2786,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C13" s="2">
         <v>309</v>
       </c>
-      <c r="D13" s="4">
-        <v>25</v>
+      <c r="D13" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2802,13 +2800,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>977</v>
+        <v>927</v>
       </c>
       <c r="C14" s="2">
         <v>927</v>
       </c>
-      <c r="D14" s="4">
-        <v>50</v>
+      <c r="D14" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2816,13 +2814,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C15" s="2">
         <v>309</v>
       </c>
-      <c r="D15" s="4">
-        <v>25</v>
+      <c r="D15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2830,13 +2828,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C16" s="2">
         <v>309</v>
       </c>
-      <c r="D16" s="4">
-        <v>25</v>
+      <c r="D16" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2844,13 +2842,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C17" s="2">
         <v>309</v>
       </c>
-      <c r="D17" s="4">
-        <v>25</v>
+      <c r="D17" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2858,13 +2856,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="2">
-        <v>643</v>
+        <v>309</v>
       </c>
       <c r="C18" s="2">
         <v>309</v>
       </c>
-      <c r="D18" s="4">
-        <v>334</v>
+      <c r="D18" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2872,13 +2870,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C19" s="2">
         <v>309</v>
       </c>
-      <c r="D19" s="4">
-        <v>25</v>
+      <c r="D19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2886,13 +2884,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C20" s="2">
         <v>309</v>
       </c>
-      <c r="D20" s="4">
-        <v>25</v>
+      <c r="D20" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2900,13 +2898,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C21" s="2">
         <v>309</v>
       </c>
-      <c r="D21" s="4">
-        <v>25</v>
+      <c r="D21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2914,13 +2912,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>2906</v>
+        <v>2163</v>
       </c>
       <c r="C22" s="2">
         <v>2163</v>
       </c>
-      <c r="D22" s="4">
-        <v>743</v>
+      <c r="D22" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2992,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3003,13 +3001,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>1000</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1000</v>
+      <c r="D5" s="3">
+        <v>-1000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,13 +3015,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="C6" s="2">
         <v>250</v>
       </c>
-      <c r="D6" s="3">
-        <v>-250</v>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,13 +3057,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="2">
         <v>1000</v>
       </c>
-      <c r="D9" s="3">
-        <v>-1000</v>
+      <c r="D9" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-1000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,13 +3141,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="4">
-        <v>500</v>
+      <c r="D15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,13 +3239,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
         <v>2000</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-1500</v>
       </c>
     </row>
   </sheetData>
@@ -3288,13 +3286,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
         <v>98.84</v>
       </c>
-      <c r="C2" s="2">
-        <v>98.8</v>
-      </c>
       <c r="D2" s="3">
-        <v>-0.04</v>
+        <v>-1.1599999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,13 +3314,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
         <v>98.6</v>
       </c>
-      <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.4</v>
+      <c r="D4" s="3">
+        <v>-1.4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3330,13 +3328,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>95.38</v>
+      </c>
+      <c r="C5" s="2">
         <v>92.61</v>
       </c>
-      <c r="C5" s="2">
-        <v>90.54</v>
-      </c>
       <c r="D5" s="3">
-        <v>-2.0699999999999998</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3344,13 +3342,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="4">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3361,10 +3359,10 @@
         <v>100</v>
       </c>
       <c r="C7" s="2">
-        <v>99.07</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.93</v>
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3372,13 +3370,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
+        <v>98.75</v>
+      </c>
+      <c r="C8" s="2">
         <v>97.26</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
       <c r="D8" s="3">
-        <v>-97.26</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3386,13 +3384,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
+        <v>99.22</v>
+      </c>
+      <c r="C9" s="2">
         <v>97.77</v>
       </c>
-      <c r="C9" s="2">
-        <v>98.74</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.98</v>
+      <c r="D9" s="3">
+        <v>-1.45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3400,13 +3398,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="2">
+        <v>81.709999999999994</v>
+      </c>
+      <c r="C10" s="2">
         <v>98.75</v>
       </c>
-      <c r="C10" s="2">
-        <v>100</v>
-      </c>
       <c r="D10" s="4">
-        <v>1.25</v>
+        <v>17.04</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3414,13 +3412,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="2">
+        <v>85.48</v>
+      </c>
+      <c r="C11" s="2">
         <v>98.28</v>
       </c>
-      <c r="C11" s="2">
-        <v>100</v>
-      </c>
       <c r="D11" s="4">
-        <v>1.72</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3428,13 +3426,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="2">
+        <v>96.05</v>
+      </c>
+      <c r="C12" s="2">
         <v>97.8</v>
       </c>
-      <c r="C12" s="2">
-        <v>97.36</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-0.44</v>
+      <c r="D12" s="4">
+        <v>1.75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3442,13 +3440,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>76.19</v>
       </c>
       <c r="C13" s="2">
-        <v>95.24</v>
-      </c>
-      <c r="D13" s="4">
-        <v>95.24</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-76.19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3456,13 +3454,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="2">
+        <v>94.9</v>
+      </c>
+      <c r="C14" s="2">
         <v>94.52</v>
       </c>
-      <c r="C14" s="2">
-        <v>89.49</v>
-      </c>
       <c r="D14" s="3">
-        <v>-5.03</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3470,13 +3468,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
         <v>100</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
+      <c r="D15" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3498,13 +3496,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2">
         <v>72.73</v>
       </c>
-      <c r="C17" s="2">
-        <v>100</v>
-      </c>
-      <c r="D17" s="4">
-        <v>27.27</v>
+      <c r="D17" s="3">
+        <v>-27.27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3515,10 +3513,10 @@
         <v>100</v>
       </c>
       <c r="C18" s="2">
-        <v>99.48</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-0.52</v>
+        <v>100</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3540,13 +3538,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="2">
+        <v>98.8</v>
+      </c>
+      <c r="C20" s="2">
         <v>99.13</v>
       </c>
-      <c r="C20" s="2">
-        <v>97.97</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-1.1599999999999999</v>
+      <c r="D20" s="4">
+        <v>0.34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3557,10 +3555,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="2">
-        <v>98.63</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-1.37</v>
+        <v>100</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3568,13 +3566,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
+        <v>91.3</v>
+      </c>
+      <c r="C22" s="2">
         <v>85.26</v>
       </c>
-      <c r="C22" s="2">
-        <v>83.91</v>
-      </c>
       <c r="D22" s="3">
-        <v>-1.35</v>
+        <v>-6.05</v>
       </c>
     </row>
   </sheetData>
@@ -3618,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2.44</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2.44</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3629,13 +3627,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C3" s="2">
         <v>5.13</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-3.57</v>
+      <c r="D3" s="4">
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3643,13 +3641,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="C4" s="2">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.0499999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1.81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3657,13 +3655,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C5" s="2">
         <v>4.5199999999999996</v>
       </c>
-      <c r="C5" s="2">
-        <v>3.31</v>
-      </c>
       <c r="D5" s="3">
-        <v>-1.21</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3688,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.93</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3713,13 +3711,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="C9" s="2">
         <v>1.27</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.86</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.59</v>
+      <c r="D9" s="3">
+        <v>-0.84</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3741,13 +3739,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="C11" s="2">
         <v>1.75</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
       <c r="D11" s="3">
-        <v>-1.75</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3755,13 +3753,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="C12" s="2">
         <v>1.37</v>
       </c>
-      <c r="C12" s="2">
-        <v>3.13</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.76</v>
+      <c r="D12" s="3">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3772,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3783,13 +3781,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="2">
+        <v>4.78</v>
+      </c>
+      <c r="C14" s="2">
         <v>1.45</v>
       </c>
-      <c r="C14" s="2">
-        <v>1.1399999999999999</v>
-      </c>
       <c r="D14" s="3">
-        <v>-0.31</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3800,10 +3798,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.82</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,13 +3809,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="2">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C16" s="2">
         <v>4.67</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-4.67</v>
+      <c r="D16" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3839,13 +3837,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="C18" s="2">
-        <v>3.11</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3.11</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-2.15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3853,13 +3851,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C19" s="2">
         <v>3.7</v>
       </c>
-      <c r="C19" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-2.59</v>
+      <c r="D19" s="4">
+        <v>2.6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3867,13 +3865,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="C20" s="2">
         <v>3.51</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-3.51</v>
+      <c r="D20" s="4">
+        <v>1.68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3881,13 +3879,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
         <v>1.56</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-1.56</v>
+      <c r="D21" s="4">
+        <v>1.56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3895,13 +3893,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="C22" s="2">
         <v>2.57</v>
       </c>
-      <c r="C22" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-0.12</v>
+      <c r="D22" s="4">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -3942,13 +3940,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>78.05</v>
+      </c>
+      <c r="C2" s="2">
         <v>82.49</v>
       </c>
-      <c r="C2" s="2">
-        <v>78.83</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-3.66</v>
+      <c r="D2" s="4">
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3956,13 +3954,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>57.5</v>
+      </c>
+      <c r="C3" s="2">
         <v>55.27</v>
       </c>
-      <c r="C3" s="2">
-        <v>51.27</v>
-      </c>
       <c r="D3" s="3">
-        <v>-4.01</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3970,13 +3968,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="C4" s="2">
         <v>68.91</v>
       </c>
-      <c r="C4" s="2">
-        <v>67.75</v>
-      </c>
       <c r="D4" s="3">
-        <v>-1.1599999999999999</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3984,13 +3982,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>93.34</v>
+      </c>
+      <c r="C5" s="2">
         <v>91.55</v>
       </c>
-      <c r="C5" s="2">
-        <v>87.01</v>
-      </c>
       <c r="D5" s="3">
-        <v>-4.53</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3998,13 +3996,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>93.12</v>
       </c>
       <c r="C6" s="2">
-        <v>78.36</v>
-      </c>
-      <c r="D6" s="4">
-        <v>78.36</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-93.12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4012,13 +4010,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
+        <v>76.97</v>
+      </c>
+      <c r="C7" s="2">
         <v>72.92</v>
       </c>
-      <c r="C7" s="2">
-        <v>70.099999999999994</v>
-      </c>
       <c r="D7" s="3">
-        <v>-2.82</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4026,13 +4024,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
+        <v>76.02</v>
+      </c>
+      <c r="C8" s="2">
         <v>79.900000000000006</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-79.900000000000006</v>
+      <c r="D8" s="4">
+        <v>3.88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4040,13 +4038,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
+        <v>95.46</v>
+      </c>
+      <c r="C9" s="2">
         <v>93.17</v>
       </c>
-      <c r="C9" s="2">
-        <v>90.15</v>
-      </c>
       <c r="D9" s="3">
-        <v>-3.02</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4054,13 +4052,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="2">
+        <v>73.88</v>
+      </c>
+      <c r="C10" s="2">
         <v>69.06</v>
       </c>
-      <c r="C10" s="2">
-        <v>66.319999999999993</v>
-      </c>
       <c r="D10" s="3">
-        <v>-2.74</v>
+        <v>-4.82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4068,13 +4066,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="2">
+        <v>74</v>
+      </c>
+      <c r="C11" s="2">
         <v>70.31</v>
       </c>
-      <c r="C11" s="2">
-        <v>73.709999999999994</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3.41</v>
+      <c r="D11" s="3">
+        <v>-3.69</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4082,13 +4080,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="2">
+        <v>91.67</v>
+      </c>
+      <c r="C12" s="2">
         <v>89.77</v>
       </c>
-      <c r="C12" s="2">
-        <v>79.94</v>
-      </c>
       <c r="D12" s="3">
-        <v>-9.83</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4096,13 +4094,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>62.14</v>
       </c>
       <c r="C13" s="2">
-        <v>63.37</v>
-      </c>
-      <c r="D13" s="4">
-        <v>63.37</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-62.14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4110,13 +4108,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="2">
+        <v>84.98</v>
+      </c>
+      <c r="C14" s="2">
         <v>73.150000000000006</v>
       </c>
-      <c r="C14" s="2">
-        <v>75.819999999999993</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2.68</v>
+      <c r="D14" s="3">
+        <v>-11.84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4124,13 +4122,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
         <v>49.52</v>
       </c>
-      <c r="C15" s="2">
-        <v>55.42</v>
-      </c>
       <c r="D15" s="4">
-        <v>5.9</v>
+        <v>49.52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4138,13 +4136,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="2">
+        <v>67.45</v>
+      </c>
+      <c r="C16" s="2">
         <v>74.010000000000005</v>
       </c>
-      <c r="C16" s="2">
-        <v>61.42</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-12.59</v>
+      <c r="D16" s="4">
+        <v>6.56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4152,13 +4150,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="2">
+        <v>74.98</v>
+      </c>
+      <c r="C17" s="2">
         <v>67.84</v>
       </c>
-      <c r="C17" s="2">
-        <v>67.64</v>
-      </c>
       <c r="D17" s="3">
-        <v>-0.2</v>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4166,13 +4164,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="2">
+        <v>79.13</v>
+      </c>
+      <c r="C18" s="2">
         <v>73.06</v>
       </c>
-      <c r="C18" s="2">
-        <v>75.47</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.41</v>
+      <c r="D18" s="3">
+        <v>-6.06</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4180,13 +4178,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="2">
+        <v>79.42</v>
+      </c>
+      <c r="C19" s="2">
         <v>80.5</v>
       </c>
-      <c r="C19" s="2">
-        <v>63.86</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-16.63</v>
+      <c r="D19" s="4">
+        <v>1.08</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4194,13 +4192,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="2">
+        <v>89.62</v>
+      </c>
+      <c r="C20" s="2">
         <v>83.69</v>
       </c>
-      <c r="C20" s="2">
-        <v>77.69</v>
-      </c>
       <c r="D20" s="3">
-        <v>-6</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4208,13 +4206,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="2">
+        <v>58.37</v>
+      </c>
+      <c r="C21" s="2">
         <v>51.61</v>
       </c>
-      <c r="C21" s="2">
-        <v>62.95</v>
-      </c>
-      <c r="D21" s="4">
-        <v>11.34</v>
+      <c r="D21" s="3">
+        <v>-6.76</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4222,13 +4220,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
+        <v>79.05</v>
+      </c>
+      <c r="C22" s="2">
         <v>73.569999999999993</v>
       </c>
-      <c r="C22" s="2">
-        <v>69.2</v>
-      </c>
       <c r="D22" s="3">
-        <v>-4.37</v>
+        <v>-5.48</v>
       </c>
     </row>
   </sheetData>
@@ -4247,7 +4245,7 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4269,13 +4267,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>50.61</v>
+      </c>
+      <c r="C2" s="2">
         <v>56.13</v>
       </c>
-      <c r="C2" s="2">
-        <v>50</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-6.13</v>
+      <c r="D2" s="4">
+        <v>5.52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4297,13 +4295,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>99.39</v>
+      </c>
+      <c r="C4" s="2">
         <v>97.94</v>
       </c>
-      <c r="C4" s="2">
-        <v>105.23</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7.29</v>
+      <c r="D4" s="3">
+        <v>-1.45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4311,13 +4309,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>794.84</v>
+      </c>
+      <c r="C5" s="2">
         <v>891.46</v>
       </c>
-      <c r="C5" s="2">
-        <v>759.67</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-131.79</v>
+      <c r="D5" s="4">
+        <v>96.62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4325,13 +4323,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>32.56</v>
       </c>
       <c r="C6" s="2">
-        <v>42.01</v>
-      </c>
-      <c r="D6" s="4">
-        <v>42.01</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-32.56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4339,13 +4337,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
+        <v>47.85</v>
+      </c>
+      <c r="C7" s="2">
         <v>51.11</v>
       </c>
-      <c r="C7" s="2">
-        <v>60</v>
-      </c>
       <c r="D7" s="4">
-        <v>8.89</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4353,13 +4351,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="C8" s="2">
         <v>50</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
       <c r="D8" s="3">
-        <v>-50</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4367,13 +4365,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
+        <v>558.02</v>
+      </c>
+      <c r="C9" s="2">
         <v>580.36</v>
       </c>
-      <c r="C9" s="2">
-        <v>483.51</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-96.85</v>
+      <c r="D9" s="4">
+        <v>22.34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4381,13 +4379,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="2">
+        <v>50.62</v>
+      </c>
+      <c r="C10" s="2">
         <v>69.75</v>
       </c>
-      <c r="C10" s="2">
-        <v>60</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-9.75</v>
+      <c r="D10" s="4">
+        <v>19.13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4395,13 +4393,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="2">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2">
         <v>51</v>
       </c>
-      <c r="C11" s="2">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
+      <c r="D11" s="3">
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4409,13 +4407,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="2">
+        <v>546.16999999999996</v>
+      </c>
+      <c r="C12" s="2">
         <v>541.59</v>
       </c>
-      <c r="C12" s="2">
-        <v>533.29</v>
-      </c>
       <c r="D12" s="3">
-        <v>-8.3000000000000007</v>
+        <v>-4.58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4423,13 +4421,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="C13" s="2">
-        <v>12.23</v>
-      </c>
-      <c r="D13" s="4">
-        <v>12.23</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-11.2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4437,13 +4435,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="2">
+        <v>173</v>
+      </c>
+      <c r="C14" s="2">
         <v>50</v>
       </c>
-      <c r="C14" s="2">
-        <v>154.15</v>
-      </c>
-      <c r="D14" s="4">
-        <v>104.15</v>
+      <c r="D14" s="3">
+        <v>-123</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4451,13 +4449,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C15" s="2">
         <v>50.52</v>
       </c>
-      <c r="C15" s="2">
-        <v>49.51</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-1.01</v>
+      <c r="D15" s="4">
+        <v>50.44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4465,13 +4463,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="2">
+        <v>48.29</v>
+      </c>
+      <c r="C16" s="2">
         <v>50.48</v>
       </c>
-      <c r="C16" s="2">
-        <v>49.95</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-0.53</v>
+      <c r="D16" s="4">
+        <v>2.19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4479,13 +4477,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="2">
+        <v>50.92</v>
+      </c>
+      <c r="C17" s="2">
         <v>59.91</v>
       </c>
-      <c r="C17" s="2">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-9.91</v>
+      <c r="D17" s="4">
+        <v>8.99</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4493,13 +4491,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="2">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2">
         <v>55</v>
       </c>
-      <c r="C18" s="2">
-        <v>103.31</v>
-      </c>
       <c r="D18" s="4">
-        <v>48.31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4507,13 +4505,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>60</v>
+        <v>59.9</v>
       </c>
       <c r="C19" s="2">
         <v>60</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
+      <c r="D19" s="4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4521,13 +4519,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="2">
+        <v>83.23</v>
+      </c>
+      <c r="C20" s="2">
         <v>60</v>
       </c>
-      <c r="C20" s="2">
-        <v>85</v>
-      </c>
-      <c r="D20" s="4">
-        <v>25</v>
+      <c r="D20" s="3">
+        <v>-23.23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4535,13 +4533,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="2">
+        <v>47.75</v>
+      </c>
+      <c r="C21" s="2">
         <v>59.95</v>
       </c>
-      <c r="C21" s="2">
-        <v>50</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-9.9499999999999993</v>
+      <c r="D21" s="4">
+        <v>12.2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4549,13 +4547,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
+        <v>407.07</v>
+      </c>
+      <c r="C22" s="2">
         <v>324.16000000000003</v>
       </c>
-      <c r="C22" s="2">
-        <v>455</v>
-      </c>
-      <c r="D22" s="4">
-        <v>130.84</v>
+      <c r="D22" s="3">
+        <v>-82.91</v>
       </c>
     </row>
   </sheetData>
@@ -4624,13 +4622,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.98</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.02</v>
+      <c r="D4" s="3">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4641,10 +4639,10 @@
         <v>0.99</v>
       </c>
       <c r="C5" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.04</v>
+        <v>0.99</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4652,13 +4650,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4666,13 +4664,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="D7" s="4">
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4683,10 +4681,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4739,10 +4737,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-0.01</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4750,13 +4748,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="C13" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.24</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4778,13 +4776,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-0.01</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4792,13 +4790,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
-        <v>0</v>
+      <c r="D16" s="4">
+        <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4862,13 +4860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="2">
-        <v>0</v>
+      <c r="D21" s="4">
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4876,13 +4874,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="2">
-        <v>0</v>
+      <c r="D22" s="4">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>

--- a/DIV12_Analysis/ComparedResults/DIV12_Tables.xlsx
+++ b/DIV12_Analysis/ComparedResults/DIV12_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\DIV12\DIV12_Analysis\ComparedResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DIV12\DIV12_Analysis\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC12EEDD-A466-487D-B63B-7F1F54D329B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70472427-AC7F-443C-AC45-D69D905E2F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="3585" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalInvoicePayment" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="27">
   <si>
     <t>LATEST</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>GIANNA TRANSPORT LLC</t>
-  </si>
-  <si>
-    <t>HAMID SALEH</t>
   </si>
   <si>
     <t>JARA TRANS LLC</t>
@@ -517,7 +514,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
@@ -538,13 +536,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <v>168195.6</v>
+      </c>
+      <c r="B2" s="2">
         <v>183165.04</v>
       </c>
-      <c r="B2" s="2">
-        <v>187259.98</v>
-      </c>
       <c r="C2" s="2">
-        <v>-4094.94</v>
+        <v>-14969.44</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -557,7 +555,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -588,13 +586,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>78.72</v>
+      </c>
+      <c r="C2" s="2">
         <v>97.83</v>
       </c>
-      <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2.17</v>
+      <c r="D2" s="3">
+        <v>-19.100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,13 +600,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>95.74</v>
       </c>
       <c r="C3" s="2">
-        <v>94.05</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3">
-        <v>-5.95</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>100</v>
+        <v>98.37</v>
       </c>
       <c r="C4" s="2">
-        <v>96.98</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3">
-        <v>-3.02</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>92.67</v>
+      </c>
+      <c r="C5" s="2">
         <v>92.08</v>
       </c>
-      <c r="C5" s="2">
-        <v>93.15</v>
-      </c>
       <c r="D5" s="4">
-        <v>1.07</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,10 +642,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
         <v>98.39</v>
-      </c>
-      <c r="C6" s="2">
-        <v>100</v>
       </c>
       <c r="D6" s="4">
         <v>1.61</v>
@@ -658,13 +656,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+        <v>97.92</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.08</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,13 +670,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>97.92</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="D8" s="4">
-        <v>2.08</v>
+      <c r="D8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,13 +684,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>100</v>
+        <v>98.65</v>
       </c>
       <c r="C9" s="2">
-        <v>98.7</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-1.3</v>
+        <v>98.22</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +698,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>98.22</v>
+        <v>93.15</v>
       </c>
       <c r="C10" s="2">
-        <v>99.2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.98</v>
+        <v>100</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-6.85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,10 +715,10 @@
         <v>100</v>
       </c>
       <c r="C11" s="2">
-        <v>93.42</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-6.58</v>
+        <v>100</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +726,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>100</v>
+        <v>97.73</v>
       </c>
       <c r="C12" s="2">
-        <v>70.11</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-29.89</v>
+        <v>94.45</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3.28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +740,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>94.45</v>
+        <v>89.13</v>
       </c>
       <c r="C13" s="2">
-        <v>97.65</v>
+        <v>88.89</v>
       </c>
       <c r="D13" s="4">
-        <v>3.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,13 +754,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>88.89</v>
+        <v>75.180000000000007</v>
       </c>
       <c r="C14" s="2">
-        <v>86.67</v>
+        <v>87.11</v>
       </c>
       <c r="D14" s="3">
-        <v>-2.2200000000000002</v>
+        <v>-11.93</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,13 +768,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>87.11</v>
+        <v>93.55</v>
       </c>
       <c r="C15" s="2">
-        <v>97.23</v>
-      </c>
-      <c r="D15" s="4">
-        <v>10.119999999999999</v>
+        <v>96.72</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-3.17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -784,13 +782,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>96.72</v>
+        <v>98.57</v>
       </c>
       <c r="C16" s="2">
-        <v>94.34</v>
+        <v>100</v>
       </c>
       <c r="D16" s="3">
-        <v>-2.38</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,13 +796,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>100</v>
+        <v>98.36</v>
       </c>
       <c r="C17" s="2">
-        <v>99.35</v>
+        <v>98.89</v>
       </c>
       <c r="D17" s="3">
-        <v>-0.65</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,13 +810,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>98.89</v>
+        <v>99.48</v>
       </c>
       <c r="C18" s="2">
-        <v>60.92</v>
+        <v>99.5</v>
       </c>
       <c r="D18" s="3">
-        <v>-37.97</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,13 +824,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2">
-        <v>99.23</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-0.27</v>
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,10 +855,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="2">
-        <v>98.8</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-1.2</v>
+        <v>89.38</v>
+      </c>
+      <c r="D21" s="4">
+        <v>10.62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,27 +866,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>89.38</v>
+        <v>89.57</v>
       </c>
       <c r="C22" s="2">
-        <v>100</v>
-      </c>
-      <c r="D22" s="4">
-        <v>10.62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
         <v>90.3</v>
       </c>
-      <c r="C23" s="2">
-        <v>83.86</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-6.43</v>
+      <c r="D22" s="3">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +882,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -943,13 +927,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>6.67</v>
+      </c>
+      <c r="C3" s="2">
         <v>4.4800000000000004</v>
       </c>
-      <c r="C3" s="2">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-1.95</v>
+      <c r="D3" s="4">
+        <v>2.19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,13 +941,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>5.52</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.61</v>
       </c>
-      <c r="C4" s="2">
-        <v>2.59</v>
-      </c>
       <c r="D4" s="4">
-        <v>1.98</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,13 +955,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="C5" s="2">
         <v>4.76</v>
       </c>
-      <c r="C5" s="2">
-        <v>4.92</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.16</v>
+      <c r="D5" s="3">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+        <v>1.06</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-1.06</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1013,13 +997,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>3.57</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2.5099999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,13 +1011,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
+        <v>1.54</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>1.54</v>
+        <v>2.94</v>
       </c>
       <c r="C10" s="2">
-        <v>2.25</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D10" s="4">
-        <v>0.71</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1055,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>1.1100000000000001</v>
+        <v>3.33</v>
       </c>
       <c r="C11" s="2">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>0.3</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1069,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="C12" s="2">
-        <v>3.28</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3.28</v>
+        <v>2.46</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>2.46</v>
+        <v>4.88</v>
       </c>
       <c r="C13" s="2">
-        <v>2.14</v>
+        <v>6.25</v>
       </c>
       <c r="D13" s="3">
-        <v>-0.31</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,13 +1081,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>6.25</v>
+        <v>1.31</v>
       </c>
       <c r="C14" s="2">
-        <v>4.62</v>
+        <v>3.22</v>
       </c>
       <c r="D14" s="3">
-        <v>-1.63</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,13 +1095,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>3.22</v>
+        <v>1.72</v>
       </c>
       <c r="C15" s="2">
-        <v>4.2699999999999996</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>1.06</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,13 +1109,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
+        <v>7.14</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-1.35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,13 +1123,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>7.14</v>
+        <v>3.33</v>
       </c>
       <c r="C17" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-3.25</v>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,13 +1137,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-3.88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,13 +1151,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-6.22</v>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,13 +1165,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
+        <v>0.59</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4.41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1195,13 +1179,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="D21" s="3">
-        <v>-0.59</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1209,27 +1193,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>2.97</v>
+        <v>3.2</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-2.97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
         <v>3.15</v>
       </c>
-      <c r="C23" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-1.36</v>
+      <c r="D22" s="4">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1270,13 +1240,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>86.21</v>
+      </c>
+      <c r="C2" s="2">
         <v>78.62</v>
       </c>
-      <c r="C2" s="2">
-        <v>88.11</v>
-      </c>
       <c r="D2" s="4">
-        <v>9.49</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,13 +1254,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>52.45</v>
+      </c>
+      <c r="C3" s="2">
         <v>58.34</v>
       </c>
-      <c r="C3" s="2">
-        <v>63.25</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4.91</v>
+      <c r="D3" s="3">
+        <v>-5.9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1298,13 +1268,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>70.36</v>
+      </c>
+      <c r="C4" s="2">
         <v>64.150000000000006</v>
       </c>
-      <c r="C4" s="2">
-        <v>80.59</v>
-      </c>
       <c r="D4" s="4">
-        <v>16.43</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1312,13 +1282,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>89.51</v>
+      </c>
+      <c r="C5" s="2">
         <v>90.23</v>
       </c>
-      <c r="C5" s="2">
-        <v>92.54</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.31</v>
+      <c r="D5" s="3">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,13 +1296,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>83.03</v>
+      </c>
+      <c r="C6" s="2">
         <v>83.42</v>
       </c>
-      <c r="C6" s="2">
-        <v>88.85</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5.43</v>
+      <c r="D6" s="3">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1340,13 +1310,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>62.86</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+        <v>71.33</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-8.48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1354,13 +1324,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>71.33</v>
+        <v>72.89</v>
       </c>
       <c r="C8" s="2">
-        <v>86.27</v>
+        <v>72.11</v>
       </c>
       <c r="D8" s="4">
-        <v>14.94</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1368,13 +1338,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>72.11</v>
+        <v>92.68</v>
       </c>
       <c r="C9" s="2">
-        <v>75.33</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3.22</v>
+        <v>93.28</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,13 +1352,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>93.28</v>
+        <v>63.62</v>
       </c>
       <c r="C10" s="2">
-        <v>95.47</v>
+        <v>59.25</v>
       </c>
       <c r="D10" s="4">
-        <v>2.19</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,13 +1366,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>59.25</v>
+        <v>71.7</v>
       </c>
       <c r="C11" s="2">
-        <v>79.33</v>
+        <v>69.8</v>
       </c>
       <c r="D11" s="4">
-        <v>20.07</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1410,13 +1380,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>69.8</v>
+        <v>85.27</v>
       </c>
       <c r="C12" s="2">
-        <v>72.8</v>
+        <v>83.96</v>
       </c>
       <c r="D12" s="4">
-        <v>3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,13 +1394,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>83.96</v>
+        <v>62.52</v>
       </c>
       <c r="C13" s="2">
-        <v>93.05</v>
+        <v>11.17</v>
       </c>
       <c r="D13" s="4">
-        <v>9.09</v>
+        <v>51.35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1438,13 +1408,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>11.17</v>
+        <v>79.22</v>
       </c>
       <c r="C14" s="2">
-        <v>68.08</v>
-      </c>
-      <c r="D14" s="4">
-        <v>56.91</v>
+        <v>79.260000000000005</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,13 +1422,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>79.260000000000005</v>
+        <v>53.76</v>
       </c>
       <c r="C15" s="2">
-        <v>86.14</v>
-      </c>
-      <c r="D15" s="4">
-        <v>6.88</v>
+        <v>58.25</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-4.4800000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,13 +1436,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>58.25</v>
+        <v>56.22</v>
       </c>
       <c r="C16" s="2">
-        <v>60.24</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.99</v>
+        <v>66.94</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-10.72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,13 +1450,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>66.94</v>
+        <v>68.97</v>
       </c>
       <c r="C17" s="2">
-        <v>84.99</v>
-      </c>
-      <c r="D17" s="4">
-        <v>18.05</v>
+        <v>68.98</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,13 +1464,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>68.98</v>
+        <v>71.66</v>
       </c>
       <c r="C18" s="2">
-        <v>66.38</v>
+        <v>74.59</v>
       </c>
       <c r="D18" s="3">
-        <v>-2.6</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1508,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>74.59</v>
+        <v>68.489999999999995</v>
       </c>
       <c r="C19" s="2">
-        <v>82.49</v>
-      </c>
-      <c r="D19" s="4">
-        <v>7.9</v>
+        <v>77.45</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-8.9600000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>77.45</v>
+        <v>78.19</v>
       </c>
       <c r="C20" s="2">
-        <v>73.22</v>
+        <v>85.66</v>
       </c>
       <c r="D20" s="3">
-        <v>-4.2300000000000004</v>
+        <v>-7.46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,13 +1506,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>85.66</v>
+        <v>59.53</v>
       </c>
       <c r="C21" s="2">
-        <v>90.21</v>
-      </c>
-      <c r="D21" s="4">
-        <v>4.5599999999999996</v>
+        <v>67.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-7.97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,27 +1520,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>67.5</v>
+        <v>78.64</v>
       </c>
       <c r="C22" s="2">
-        <v>51.3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-16.190000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
         <v>71</v>
       </c>
-      <c r="C23" s="2">
-        <v>74.67</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3.67</v>
+      <c r="D22" s="4">
+        <v>7.65</v>
       </c>
     </row>
   </sheetData>
@@ -1580,348 +1536,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>57</v>
-      </c>
-      <c r="C2" s="2">
-        <v>51</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>101.62</v>
-      </c>
-      <c r="C4" s="2">
-        <v>113.83</v>
-      </c>
-      <c r="D4" s="4">
-        <v>12.21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>824.95</v>
-      </c>
-      <c r="C5" s="2">
-        <v>795.27</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-29.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44.51</v>
-      </c>
-      <c r="C6" s="2">
-        <v>19.29</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-25.22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>53.23</v>
-      </c>
-      <c r="C8" s="2">
-        <v>51.78</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-1.45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2">
-        <v>50.51</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>509.03</v>
-      </c>
-      <c r="C10" s="2">
-        <v>577.95000000000005</v>
-      </c>
-      <c r="D10" s="4">
-        <v>68.92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>69.92</v>
-      </c>
-      <c r="C11" s="2">
-        <v>60</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-9.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <v>53</v>
-      </c>
-      <c r="C12" s="2">
-        <v>52.57</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-0.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2">
-        <v>507.21</v>
-      </c>
-      <c r="C13" s="2">
-        <v>546.46</v>
-      </c>
-      <c r="D13" s="4">
-        <v>39.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>49.85</v>
-      </c>
-      <c r="C14" s="2">
-        <v>50</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2">
-        <v>158.84</v>
-      </c>
-      <c r="C15" s="2">
-        <v>141.34</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-17.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2">
-        <v>49.22</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-0.78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2">
-        <v>61</v>
-      </c>
-      <c r="C18" s="2">
-        <v>58.93</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2">
-        <v>100</v>
-      </c>
-      <c r="C19" s="2">
-        <v>70.540000000000006</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-29.46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2">
-        <v>59.99</v>
-      </c>
-      <c r="C20" s="2">
-        <v>52</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-7.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2">
-        <v>81.36</v>
-      </c>
-      <c r="C21" s="2">
-        <v>84.41</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2">
-        <v>59.9</v>
-      </c>
-      <c r="C22" s="2">
-        <v>57</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-2.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
-        <v>461</v>
-      </c>
-      <c r="C23" s="2">
-        <v>315.66000000000003</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-145.34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1952,13 +1567,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>49.83</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-7.17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1966,10 +1581,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1980,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>104.53</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
+        <v>101.62</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1994,13 +1609,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>761.54</v>
       </c>
       <c r="C5" s="2">
-        <v>0.99</v>
+        <v>824.95</v>
       </c>
       <c r="D5" s="3">
-        <v>-0.01</v>
+        <v>-63.41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2008,13 +1623,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0.89</v>
+        <v>22.21</v>
       </c>
       <c r="C6" s="2">
-        <v>0.39</v>
+        <v>44.51</v>
       </c>
       <c r="D6" s="3">
-        <v>-0.5</v>
+        <v>-22.3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2022,13 +1637,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+        <v>53.23</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-18.07</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2036,10 +1651,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -2050,13 +1665,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>547</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
+        <v>509.03</v>
+      </c>
+      <c r="D9" s="4">
+        <v>37.97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2064,13 +1679,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>52.97</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
+        <v>69.92</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-16.95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2078,13 +1693,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>52.62</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2092,13 +1707,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>568.14</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
+        <v>507.21</v>
+      </c>
+      <c r="D12" s="4">
+        <v>60.93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2106,13 +1721,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0.94</v>
+        <v>26.04</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.06</v>
+        <v>49.85</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-23.81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2120,13 +1735,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>160.78</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
+        <v>158.84</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2134,13 +1749,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>49.31</v>
       </c>
       <c r="C15" s="2">
-        <v>0.94</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3">
-        <v>-0.06</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2148,13 +1763,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-0.02</v>
+        <v>50</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2162,13 +1777,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2176,13 +1791,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>102.25</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2190,13 +1805,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>51.06</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
+        <v>59.99</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-8.93</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2204,13 +1819,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>42.28</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
+        <v>81.36</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-39.08</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2218,13 +1833,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>16.11</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
+        <v>59.9</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-43.79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2232,27 +1847,340 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>392.82</v>
+      </c>
+      <c r="C22" s="2">
+        <v>461</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-68.180000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>99.66</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>95.19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44.42</v>
+      </c>
+      <c r="C6" s="2">
+        <v>89.02</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-44.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>99.81</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>93.93</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>52.08</v>
+      </c>
+      <c r="C13" s="2">
+        <v>99.7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-47.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>98.62</v>
+      </c>
+      <c r="C15" s="2">
+        <v>100</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-1.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>100</v>
+      </c>
+      <c r="C16" s="2">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>100</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>98.33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>100</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-1.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>32.22</v>
+      </c>
+      <c r="C21" s="2">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-67.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2">
+        <v>92.43</v>
+      </c>
       <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-0.02</v>
+        <v>100</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-7.57</v>
       </c>
     </row>
   </sheetData>
@@ -2262,14 +2190,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="4" width="10" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2291,13 +2220,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>3159.72</v>
+      </c>
+      <c r="C2" s="2">
         <v>3585.32</v>
       </c>
-      <c r="C2" s="2">
-        <v>3593.52</v>
-      </c>
-      <c r="D2" s="4">
-        <v>8.19</v>
+      <c r="D2" s="3">
+        <v>-425.61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,13 +2234,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>3012</v>
+      </c>
+      <c r="C3" s="2">
         <v>3082.27</v>
       </c>
-      <c r="C3" s="2">
-        <v>2921.17</v>
-      </c>
       <c r="D3" s="3">
-        <v>-161.1</v>
+        <v>-70.27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2319,13 +2248,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>6540.92</v>
+      </c>
+      <c r="C4" s="2">
         <v>6569.72</v>
       </c>
-      <c r="C4" s="2">
-        <v>6629.13</v>
-      </c>
-      <c r="D4" s="4">
-        <v>59.41</v>
+      <c r="D4" s="3">
+        <v>-28.8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2333,13 +2262,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>42689.02</v>
+      </c>
+      <c r="C5" s="2">
         <v>55321.93</v>
       </c>
-      <c r="C5" s="2">
-        <v>57496.76</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2174.83</v>
+      <c r="D5" s="3">
+        <v>-12632.91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2347,13 +2276,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>1970.52</v>
+      </c>
+      <c r="C6" s="2">
         <v>1996.29</v>
       </c>
-      <c r="C6" s="2">
-        <v>482.57</v>
-      </c>
       <c r="D6" s="3">
-        <v>-1513.72</v>
+        <v>-25.77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2361,13 +2290,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>3078.06</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+        <v>3177.68</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-99.62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2375,13 +2304,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>3177.68</v>
+        <v>1668</v>
       </c>
       <c r="C8" s="2">
-        <v>3438.94</v>
-      </c>
-      <c r="D8" s="4">
-        <v>261.26</v>
+        <v>3366.25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-1698.25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2389,13 +2318,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>3366.25</v>
+        <v>35325.85</v>
       </c>
       <c r="C9" s="2">
-        <v>3344.98</v>
+        <v>36767.75</v>
       </c>
       <c r="D9" s="3">
-        <v>-21.26</v>
+        <v>-1441.9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2403,13 +2332,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>36767.75</v>
+        <v>3500.17</v>
       </c>
       <c r="C10" s="2">
-        <v>39864.03</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3096.28</v>
+        <v>3760.88</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-260.70999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2417,13 +2346,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>3760.88</v>
+        <v>3492.62</v>
       </c>
       <c r="C11" s="2">
-        <v>4127.8599999999997</v>
+        <v>3259.18</v>
       </c>
       <c r="D11" s="4">
-        <v>366.98</v>
+        <v>233.43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2431,13 +2360,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>3259.18</v>
+        <v>37780.26</v>
       </c>
       <c r="C12" s="2">
-        <v>3312.02</v>
+        <v>29396.34</v>
       </c>
       <c r="D12" s="4">
-        <v>52.84</v>
+        <v>8383.92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2445,13 +2374,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>29396.34</v>
+        <v>634.48</v>
       </c>
       <c r="C13" s="2">
-        <v>37655.980000000003</v>
-      </c>
-      <c r="D13" s="4">
-        <v>8259.64</v>
+        <v>1537.64</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-903.16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2459,13 +2388,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>1537.64</v>
+        <v>9501.74</v>
       </c>
       <c r="C14" s="2">
-        <v>1444.92</v>
+        <v>10327.620000000001</v>
       </c>
       <c r="D14" s="3">
-        <v>-92.72</v>
+        <v>-825.87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2473,13 +2402,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>10327.620000000001</v>
+        <v>3057.44</v>
       </c>
       <c r="C15" s="2">
-        <v>5415.12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-4912.5</v>
+        <v>1585.52</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1471.92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2487,13 +2416,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>1585.52</v>
+        <v>3037.96</v>
       </c>
       <c r="C16" s="2">
-        <v>3091.72</v>
+        <v>2750.01</v>
       </c>
       <c r="D16" s="4">
-        <v>1506.2</v>
+        <v>287.95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2501,13 +2430,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>2750.01</v>
+        <v>3134.9</v>
       </c>
       <c r="C17" s="2">
-        <v>3291.69</v>
-      </c>
-      <c r="D17" s="4">
-        <v>541.67999999999995</v>
+        <v>3656.23</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-521.33000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2515,13 +2444,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>3656.23</v>
+        <v>6930.69</v>
       </c>
       <c r="C18" s="2">
-        <v>3504.19</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-152.04</v>
+        <v>4806.6099999999997</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2124.08</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2529,13 +2458,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>4806.6099999999997</v>
+        <v>3498.98</v>
       </c>
       <c r="C19" s="2">
-        <v>4256.45</v>
+        <v>4079.38</v>
       </c>
       <c r="D19" s="3">
-        <v>-550.16</v>
+        <v>-580.41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2543,13 +2472,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>4079.38</v>
+        <v>4246.92</v>
       </c>
       <c r="C20" s="2">
-        <v>3741.99</v>
+        <v>5562.02</v>
       </c>
       <c r="D20" s="3">
-        <v>-337.4</v>
+        <v>-1315.09</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2557,13 +2486,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>5562.02</v>
+        <v>1822.9</v>
       </c>
       <c r="C21" s="2">
-        <v>4854.46</v>
+        <v>2989.54</v>
       </c>
       <c r="D21" s="3">
-        <v>-707.56</v>
+        <v>-1166.6400000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2571,27 +2500,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>2989.54</v>
+        <v>19568.46</v>
       </c>
       <c r="C22" s="2">
-        <v>3715.99</v>
-      </c>
-      <c r="D22" s="4">
-        <v>726.45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
         <v>24556.86</v>
       </c>
-      <c r="C23" s="2">
-        <v>19355.5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-5201.37</v>
+      <c r="D22" s="3">
+        <v>-4988.41</v>
       </c>
     </row>
   </sheetData>
@@ -2632,13 +2547,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C2" s="2">
         <v>309</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
+      <c r="D2" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2646,13 +2561,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C3" s="2">
         <v>309</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
+      <c r="D3" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2660,13 +2575,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>618</v>
+        <v>643</v>
       </c>
       <c r="C4" s="2">
         <v>618</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
+      <c r="D4" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2674,13 +2589,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>8034</v>
+        <v>8359</v>
       </c>
       <c r="C5" s="2">
         <v>8034</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
+      <c r="D5" s="4">
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2688,237 +2603,237 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C6" s="2">
         <v>309</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
+      <c r="D6" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C7" s="2">
         <v>309</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="D7" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C8" s="2">
         <v>309</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
+      <c r="D8" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>4326</v>
+        <v>4501</v>
       </c>
       <c r="C9" s="2">
         <v>4326</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
+      <c r="D9" s="4">
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C10" s="2">
         <v>309</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
+      <c r="D10" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C11" s="2">
         <v>309</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
+      <c r="D11" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>4326</v>
+        <v>4501</v>
       </c>
       <c r="C12" s="2">
         <v>4326</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
+      <c r="D12" s="4">
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C13" s="2">
         <v>309</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
+      <c r="D13" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>927</v>
+        <v>977</v>
       </c>
       <c r="C14" s="2">
         <v>927</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
+      <c r="D14" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C15" s="2">
         <v>309</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
+      <c r="D15" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C16" s="2">
         <v>309</v>
       </c>
-      <c r="D16" s="2">
-        <v>0</v>
+      <c r="D16" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C17" s="2">
         <v>309</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
+      <c r="D17" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>309</v>
+        <v>643</v>
       </c>
       <c r="C18" s="2">
         <v>309</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
+      <c r="D18" s="4">
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C19" s="2">
         <v>309</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
+      <c r="D19" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C20" s="2">
         <v>309</v>
       </c>
-      <c r="D20" s="2">
-        <v>0</v>
+      <c r="D20" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C21" s="2">
         <v>309</v>
       </c>
-      <c r="D21" s="2">
-        <v>0</v>
+      <c r="D21" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>2163</v>
+        <v>2906</v>
       </c>
       <c r="C22" s="2">
         <v>2163</v>
       </c>
-      <c r="D22" s="2">
-        <v>0</v>
+      <c r="D22" s="4">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -3001,13 +2916,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C5" s="2">
         <v>1000</v>
       </c>
-      <c r="D5" s="3">
-        <v>-1000</v>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3015,18 +2930,18 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>250</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
+      <c r="D6" s="3">
+        <v>-250</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -3040,7 +2955,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -3054,21 +2969,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
         <v>1000</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
+      <c r="D9" s="3">
+        <v>-1000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -3082,7 +2997,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -3096,7 +3011,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -3110,7 +3025,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -3124,7 +3039,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -3138,21 +3053,21 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
+      <c r="D15" s="4">
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -3166,7 +3081,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -3180,7 +3095,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -3194,7 +3109,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -3208,7 +3123,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -3222,7 +3137,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -3236,16 +3151,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3286,13 +3201,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="C2" s="2">
-        <v>98.84</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3">
-        <v>-1.1599999999999999</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3317,10 +3232,10 @@
         <v>100</v>
       </c>
       <c r="C4" s="2">
-        <v>98.6</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-1.4</v>
+        <v>100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3328,13 +3243,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>90.54</v>
+      </c>
+      <c r="C5" s="2">
         <v>95.38</v>
       </c>
-      <c r="C5" s="2">
-        <v>92.61</v>
-      </c>
       <c r="D5" s="3">
-        <v>-2.77</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,133 +3260,133 @@
         <v>100</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>100</v>
+        <v>99.07</v>
       </c>
       <c r="C7" s="2">
         <v>100</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="D7" s="3">
+        <v>-0.93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>98.75</v>
       </c>
-      <c r="C8" s="2">
-        <v>97.26</v>
-      </c>
       <c r="D8" s="3">
-        <v>-1.49</v>
+        <v>-98.75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>98.74</v>
+      </c>
+      <c r="C9" s="2">
         <v>99.22</v>
       </c>
-      <c r="C9" s="2">
-        <v>97.77</v>
-      </c>
       <c r="D9" s="3">
-        <v>-1.45</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
         <v>81.709999999999994</v>
       </c>
-      <c r="C10" s="2">
-        <v>98.75</v>
-      </c>
       <c r="D10" s="4">
-        <v>17.04</v>
+        <v>18.29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
         <v>85.48</v>
       </c>
-      <c r="C11" s="2">
-        <v>98.28</v>
-      </c>
       <c r="D11" s="4">
-        <v>12.79</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>97.36</v>
+      </c>
+      <c r="C12" s="2">
         <v>96.05</v>
       </c>
-      <c r="C12" s="2">
-        <v>97.8</v>
-      </c>
       <c r="D12" s="4">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>95.24</v>
+      </c>
+      <c r="C13" s="2">
         <v>76.19</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-76.19</v>
+      <c r="D13" s="4">
+        <v>19.05</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>89.49</v>
+      </c>
+      <c r="C14" s="2">
         <v>94.9</v>
       </c>
-      <c r="C14" s="2">
-        <v>94.52</v>
-      </c>
       <c r="D14" s="3">
-        <v>-0.38</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4">
         <v>100</v>
@@ -3479,7 +3394,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>100</v>
@@ -3493,35 +3408,35 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>100</v>
       </c>
       <c r="C17" s="2">
-        <v>72.73</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-27.27</v>
+        <v>100</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>100</v>
+        <v>99.48</v>
       </c>
       <c r="C18" s="2">
         <v>100</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
+      <c r="D18" s="3">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <v>100</v>
@@ -3535,44 +3450,44 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>97.97</v>
+      </c>
+      <c r="C20" s="2">
         <v>98.8</v>
       </c>
-      <c r="C20" s="2">
-        <v>99.13</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.34</v>
+      <c r="D20" s="3">
+        <v>-0.82</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>100</v>
+        <v>98.63</v>
       </c>
       <c r="C21" s="2">
         <v>100</v>
       </c>
-      <c r="D21" s="2">
-        <v>0</v>
+      <c r="D21" s="3">
+        <v>-1.37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>83.91</v>
+      </c>
+      <c r="C22" s="2">
         <v>91.3</v>
       </c>
-      <c r="C22" s="2">
-        <v>85.26</v>
-      </c>
       <c r="D22" s="3">
-        <v>-6.05</v>
+        <v>-7.39</v>
       </c>
     </row>
   </sheetData>
@@ -3613,13 +3528,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
+      <c r="D2" s="4">
+        <v>2.44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3627,13 +3542,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="C3" s="2">
         <v>2.7</v>
       </c>
-      <c r="C3" s="2">
-        <v>5.13</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2.4300000000000002</v>
+      <c r="D3" s="3">
+        <v>-1.1399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3641,13 +3556,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C4" s="2">
         <v>1.81</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-1.81</v>
+      <c r="D4" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3655,13 +3570,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="C5" s="2">
         <v>4.6100000000000003</v>
       </c>
-      <c r="C5" s="2">
-        <v>4.5199999999999996</v>
-      </c>
       <c r="D5" s="3">
-        <v>-0.09</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3680,21 +3595,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="D7" s="4">
+        <v>0.93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -3708,21 +3623,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="C9" s="2">
         <v>2.11</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.27</v>
-      </c>
       <c r="D9" s="3">
-        <v>-0.84</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -3736,91 +3651,91 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
         <v>1.89</v>
       </c>
-      <c r="C11" s="2">
-        <v>1.75</v>
-      </c>
       <c r="D11" s="3">
-        <v>-0.13</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="C12" s="2">
         <v>1.96</v>
       </c>
-      <c r="C12" s="2">
-        <v>1.37</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-0.59</v>
+      <c r="D12" s="4">
+        <v>1.17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
+      <c r="D13" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C14" s="2">
         <v>4.78</v>
       </c>
-      <c r="C14" s="2">
-        <v>1.45</v>
-      </c>
       <c r="D14" s="3">
-        <v>-3.33</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
+      <c r="D15" s="4">
+        <v>1.82</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
         <v>4.6500000000000004</v>
       </c>
-      <c r="C16" s="2">
-        <v>4.67</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.02</v>
+      <c r="D16" s="3">
+        <v>-4.6500000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -3834,72 +3749,72 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="C18" s="2">
         <v>2.15</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-2.15</v>
+      <c r="D18" s="4">
+        <v>0.96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C19" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C19" s="2">
-        <v>3.7</v>
-      </c>
       <c r="D19" s="4">
-        <v>2.6</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
         <v>1.83</v>
       </c>
-      <c r="C20" s="2">
-        <v>3.51</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1.68</v>
+      <c r="D20" s="3">
+        <v>-1.83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.56</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C22" s="2">
         <v>1.81</v>
       </c>
-      <c r="C22" s="2">
-        <v>2.57</v>
-      </c>
       <c r="D22" s="4">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -3940,13 +3855,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>78.83</v>
+      </c>
+      <c r="C2" s="2">
         <v>78.05</v>
       </c>
-      <c r="C2" s="2">
-        <v>82.49</v>
-      </c>
       <c r="D2" s="4">
-        <v>4.4400000000000004</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3954,13 +3869,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>51.27</v>
+      </c>
+      <c r="C3" s="2">
         <v>57.5</v>
       </c>
-      <c r="C3" s="2">
-        <v>55.27</v>
-      </c>
       <c r="D3" s="3">
-        <v>-2.23</v>
+        <v>-6.24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3968,13 +3883,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>67.75</v>
+      </c>
+      <c r="C4" s="2">
         <v>75.069999999999993</v>
       </c>
-      <c r="C4" s="2">
-        <v>68.91</v>
-      </c>
       <c r="D4" s="3">
-        <v>-6.16</v>
+        <v>-7.32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3982,13 +3897,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>87.01</v>
+      </c>
+      <c r="C5" s="2">
         <v>93.34</v>
       </c>
-      <c r="C5" s="2">
-        <v>91.55</v>
-      </c>
       <c r="D5" s="3">
-        <v>-1.79</v>
+        <v>-6.33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3996,237 +3911,237 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>78.36</v>
+      </c>
+      <c r="C6" s="2">
         <v>93.12</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
       <c r="D6" s="3">
-        <v>-93.12</v>
+        <v>-14.76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="C7" s="2">
         <v>76.97</v>
       </c>
-      <c r="C7" s="2">
-        <v>72.92</v>
-      </c>
       <c r="D7" s="3">
-        <v>-4.05</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>76.02</v>
       </c>
-      <c r="C8" s="2">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3.88</v>
+      <c r="D8" s="3">
+        <v>-76.02</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>90.15</v>
+      </c>
+      <c r="C9" s="2">
         <v>95.46</v>
       </c>
-      <c r="C9" s="2">
-        <v>93.17</v>
-      </c>
       <c r="D9" s="3">
-        <v>-2.29</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>66.319999999999993</v>
+      </c>
+      <c r="C10" s="2">
         <v>73.88</v>
       </c>
-      <c r="C10" s="2">
-        <v>69.06</v>
-      </c>
       <c r="D10" s="3">
-        <v>-4.82</v>
+        <v>-7.56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
+        <v>73.709999999999994</v>
+      </c>
+      <c r="C11" s="2">
         <v>74</v>
       </c>
-      <c r="C11" s="2">
-        <v>70.31</v>
-      </c>
       <c r="D11" s="3">
-        <v>-3.69</v>
+        <v>-0.28999999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>79.94</v>
+      </c>
+      <c r="C12" s="2">
         <v>91.67</v>
       </c>
-      <c r="C12" s="2">
-        <v>89.77</v>
-      </c>
       <c r="D12" s="3">
-        <v>-1.91</v>
+        <v>-11.74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>63.37</v>
+      </c>
+      <c r="C13" s="2">
         <v>62.14</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-62.14</v>
+      <c r="D13" s="4">
+        <v>1.23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="C14" s="2">
         <v>84.98</v>
       </c>
-      <c r="C14" s="2">
-        <v>73.150000000000006</v>
-      </c>
       <c r="D14" s="3">
-        <v>-11.84</v>
+        <v>-9.16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>55.42</v>
       </c>
       <c r="C15" s="2">
-        <v>49.52</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>49.52</v>
+        <v>55.42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>61.42</v>
+      </c>
+      <c r="C16" s="2">
         <v>67.45</v>
       </c>
-      <c r="C16" s="2">
-        <v>74.010000000000005</v>
-      </c>
-      <c r="D16" s="4">
-        <v>6.56</v>
+      <c r="D16" s="3">
+        <v>-6.03</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>67.64</v>
+      </c>
+      <c r="C17" s="2">
         <v>74.98</v>
       </c>
-      <c r="C17" s="2">
-        <v>67.84</v>
-      </c>
       <c r="D17" s="3">
-        <v>-7.15</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>75.47</v>
+      </c>
+      <c r="C18" s="2">
         <v>79.13</v>
       </c>
-      <c r="C18" s="2">
-        <v>73.06</v>
-      </c>
       <c r="D18" s="3">
-        <v>-6.06</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>63.86</v>
+      </c>
+      <c r="C19" s="2">
         <v>79.42</v>
       </c>
-      <c r="C19" s="2">
-        <v>80.5</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1.08</v>
+      <c r="D19" s="3">
+        <v>-15.55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>77.69</v>
+      </c>
+      <c r="C20" s="2">
         <v>89.62</v>
       </c>
-      <c r="C20" s="2">
-        <v>83.69</v>
-      </c>
       <c r="D20" s="3">
-        <v>-5.93</v>
+        <v>-11.92</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>62.95</v>
+      </c>
+      <c r="C21" s="2">
         <v>58.37</v>
       </c>
-      <c r="C21" s="2">
-        <v>51.61</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-6.76</v>
+      <c r="D21" s="4">
+        <v>4.58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>69.2</v>
+      </c>
+      <c r="C22" s="2">
         <v>79.05</v>
       </c>
-      <c r="C22" s="2">
-        <v>73.569999999999993</v>
-      </c>
       <c r="D22" s="3">
-        <v>-5.48</v>
+        <v>-9.86</v>
       </c>
     </row>
   </sheetData>
@@ -4267,13 +4182,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
         <v>50.61</v>
       </c>
-      <c r="C2" s="2">
-        <v>56.13</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5.52</v>
+      <c r="D2" s="3">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4295,13 +4210,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>105.23</v>
+      </c>
+      <c r="C4" s="2">
         <v>99.39</v>
       </c>
-      <c r="C4" s="2">
-        <v>97.94</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-1.45</v>
+      <c r="D4" s="4">
+        <v>5.84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4309,13 +4224,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
+        <v>759.67</v>
+      </c>
+      <c r="C5" s="2">
         <v>794.84</v>
       </c>
-      <c r="C5" s="2">
-        <v>891.46</v>
-      </c>
-      <c r="D5" s="4">
-        <v>96.62</v>
+      <c r="D5" s="3">
+        <v>-35.17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4323,192 +4238,192 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
+        <v>42.01</v>
+      </c>
+      <c r="C6" s="2">
         <v>32.56</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-32.56</v>
+      <c r="D6" s="4">
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2">
         <v>47.85</v>
       </c>
-      <c r="C7" s="2">
-        <v>51.11</v>
-      </c>
       <c r="D7" s="4">
-        <v>3.26</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>50.5</v>
       </c>
-      <c r="C8" s="2">
-        <v>50</v>
-      </c>
       <c r="D8" s="3">
-        <v>-0.5</v>
+        <v>-50.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
+        <v>483.51</v>
+      </c>
+      <c r="C9" s="2">
         <v>558.02</v>
       </c>
-      <c r="C9" s="2">
-        <v>580.36</v>
-      </c>
-      <c r="D9" s="4">
-        <v>22.34</v>
+      <c r="D9" s="3">
+        <v>-74.510000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2">
         <v>50.62</v>
       </c>
-      <c r="C10" s="2">
-        <v>69.75</v>
-      </c>
       <c r="D10" s="4">
-        <v>19.13</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>52</v>
       </c>
       <c r="C11" s="2">
-        <v>51</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-1</v>
+        <v>52</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
+        <v>533.29</v>
+      </c>
+      <c r="C12" s="2">
         <v>546.16999999999996</v>
       </c>
-      <c r="C12" s="2">
-        <v>541.59</v>
-      </c>
       <c r="D12" s="3">
-        <v>-4.58</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
+        <v>12.23</v>
+      </c>
+      <c r="C13" s="2">
         <v>11.2</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-11.2</v>
+      <c r="D13" s="4">
+        <v>1.03</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
+        <v>154.15</v>
+      </c>
+      <c r="C14" s="2">
         <v>173</v>
       </c>
-      <c r="C14" s="2">
-        <v>50</v>
-      </c>
       <c r="D14" s="3">
-        <v>-123</v>
+        <v>-18.850000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
+        <v>49.51</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.08</v>
       </c>
-      <c r="C15" s="2">
-        <v>50.52</v>
-      </c>
       <c r="D15" s="4">
-        <v>50.44</v>
+        <v>49.43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>49.95</v>
+      </c>
+      <c r="C16" s="2">
         <v>48.29</v>
       </c>
-      <c r="C16" s="2">
-        <v>50.48</v>
-      </c>
       <c r="D16" s="4">
-        <v>2.19</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2">
         <v>50.92</v>
       </c>
-      <c r="C17" s="2">
-        <v>59.91</v>
-      </c>
-      <c r="D17" s="4">
-        <v>8.99</v>
+      <c r="D17" s="3">
+        <v>-0.92</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
+        <v>103.31</v>
+      </c>
+      <c r="C18" s="2">
         <v>50</v>
       </c>
-      <c r="C18" s="2">
-        <v>55</v>
-      </c>
       <c r="D18" s="4">
-        <v>5</v>
+        <v>53.31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2">
         <v>59.9</v>
-      </c>
-      <c r="C19" s="2">
-        <v>60</v>
       </c>
       <c r="D19" s="4">
         <v>0.1</v>
@@ -4516,44 +4431,44 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2">
         <v>83.23</v>
       </c>
-      <c r="C20" s="2">
-        <v>60</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-23.23</v>
+      <c r="D20" s="4">
+        <v>1.77</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2">
         <v>47.75</v>
       </c>
-      <c r="C21" s="2">
-        <v>59.95</v>
-      </c>
       <c r="D21" s="4">
-        <v>12.2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
+        <v>455</v>
+      </c>
+      <c r="C22" s="2">
         <v>407.07</v>
       </c>
-      <c r="C22" s="2">
-        <v>324.16000000000003</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-82.91</v>
+      <c r="D22" s="4">
+        <v>47.93</v>
       </c>
     </row>
   </sheetData>
@@ -4594,10 +4509,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -4608,10 +4523,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -4622,13 +4537,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0.99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.01</v>
+        <v>99.39</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4636,13 +4551,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0.99</v>
+        <v>94.96</v>
       </c>
       <c r="C5" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
+        <v>99.36</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4650,66 +4565,66 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0.65</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.65</v>
+        <v>65.12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>34.880000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>0.96</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>95.7</v>
       </c>
       <c r="D7" s="4">
-        <v>0.04</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>99.69</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -4717,13 +4632,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -4731,41 +4646,41 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>98.76</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-1.24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0.22</v>
+        <v>24.46</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-0.22</v>
+        <v>22.4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.06</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -4773,41 +4688,41 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>99.02</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>98.86</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>0.97</v>
+        <v>99.9</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>96.58</v>
       </c>
       <c r="D16" s="4">
-        <v>0.03</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -4815,13 +4730,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -4829,13 +4744,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -4843,13 +4758,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -4857,30 +4772,30 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>0.95</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>95.5</v>
       </c>
       <c r="D21" s="4">
-        <v>0.05</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>0.96</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>95.78</v>
       </c>
       <c r="D22" s="4">
-        <v>0.04</v>
+        <v>4.22</v>
       </c>
     </row>
   </sheetData>
